--- a/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24585287596728</v>
+        <v>21.28068125842616</v>
       </c>
       <c r="C2">
-        <v>19.65679783936483</v>
+        <v>14.93473381853175</v>
       </c>
       <c r="D2">
-        <v>4.349752032392336</v>
+        <v>3.660525277598298</v>
       </c>
       <c r="E2">
-        <v>10.75199295917139</v>
+        <v>30.08059395220752</v>
       </c>
       <c r="F2">
-        <v>39.55806285492921</v>
+        <v>35.81876796700521</v>
       </c>
       <c r="I2">
-        <v>24.98728089548701</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.86357858916181</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.00160569425094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.94023162306373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74430778138212</v>
+        <v>19.76478032060031</v>
       </c>
       <c r="C3">
-        <v>18.23135996649492</v>
+        <v>13.93002251451489</v>
       </c>
       <c r="D3">
-        <v>4.351184597293722</v>
+        <v>3.725569683468788</v>
       </c>
       <c r="E3">
-        <v>10.16114676093358</v>
+        <v>27.79899097996804</v>
       </c>
       <c r="F3">
-        <v>37.32414659280705</v>
+        <v>33.83009502004434</v>
       </c>
       <c r="I3">
-        <v>23.96147998601572</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.57279591490955</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.66385076543624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.53697596044685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77654075796265</v>
+        <v>18.78839622665757</v>
       </c>
       <c r="C4">
-        <v>17.31483249847677</v>
+        <v>13.28491630365942</v>
       </c>
       <c r="D4">
-        <v>4.355577189453241</v>
+        <v>3.767761907765315</v>
       </c>
       <c r="E4">
-        <v>9.795417379959819</v>
+        <v>26.34369664608611</v>
       </c>
       <c r="F4">
-        <v>35.93372189077201</v>
+        <v>32.59871277733349</v>
       </c>
       <c r="I4">
-        <v>23.33901860723269</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.74260262863821</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.80432731217245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.67640703938562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37041684540006</v>
+        <v>18.37878625647441</v>
       </c>
       <c r="C5">
-        <v>16.93070140924234</v>
+        <v>13.01478347164877</v>
       </c>
       <c r="D5">
-        <v>4.358172309658139</v>
+        <v>3.785464561123222</v>
       </c>
       <c r="E5">
-        <v>9.645709369845406</v>
+        <v>25.73632607194342</v>
       </c>
       <c r="F5">
-        <v>35.3627092209134</v>
+        <v>32.09456485291901</v>
       </c>
       <c r="I5">
-        <v>23.08730059157005</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.39462912008028</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.444254201699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.32613406034238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30226411946722</v>
+        <v>18.31005556910531</v>
       </c>
       <c r="C6">
-        <v>16.86626716223869</v>
+        <v>12.96948643034589</v>
       </c>
       <c r="D6">
-        <v>4.358649693597826</v>
+        <v>3.788433325155639</v>
       </c>
       <c r="E6">
-        <v>9.620812832536243</v>
+        <v>25.6345896060828</v>
       </c>
       <c r="F6">
-        <v>35.26763936592682</v>
+        <v>32.01071948373795</v>
       </c>
       <c r="I6">
-        <v>23.04562335015395</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.33625950891707</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.38386578876347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.2680028067921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77111150146419</v>
+        <v>18.78291988229726</v>
       </c>
       <c r="C7">
-        <v>17.30969536825843</v>
+        <v>13.28130272448596</v>
       </c>
       <c r="D7">
-        <v>4.355609026826051</v>
+        <v>3.767998659764578</v>
       </c>
       <c r="E7">
-        <v>9.793400956365728</v>
+        <v>26.33556425330942</v>
       </c>
       <c r="F7">
-        <v>35.92603830809698</v>
+        <v>32.59192274682863</v>
       </c>
       <c r="I7">
-        <v>23.3356158564587</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.73794910263576</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.79951123773268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.6716811834538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73748352111701</v>
+        <v>20.76730526405323</v>
       </c>
       <c r="C8">
-        <v>19.17372056726702</v>
+        <v>14.59406380986102</v>
       </c>
       <c r="D8">
-        <v>4.349467571425685</v>
+        <v>3.682446065120703</v>
       </c>
       <c r="E8">
-        <v>10.54891049197187</v>
+        <v>29.30476876477714</v>
       </c>
       <c r="F8">
-        <v>38.79185430001134</v>
+        <v>35.13532125644259</v>
       </c>
       <c r="I8">
-        <v>24.63208846795456</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.42620409737573</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.54812299139034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.45623895020839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.24152748577691</v>
+        <v>24.30957782449981</v>
       </c>
       <c r="C9">
-        <v>22.5139619791156</v>
+        <v>16.95293775972574</v>
       </c>
       <c r="D9">
-        <v>4.369213534696406</v>
+        <v>3.53589627359163</v>
       </c>
       <c r="E9">
-        <v>12.00628045330315</v>
+        <v>34.72965784521247</v>
       </c>
       <c r="F9">
-        <v>44.25676927133702</v>
+        <v>40.03810233365601</v>
       </c>
       <c r="I9">
-        <v>27.23211308521705</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.44850059957879</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.68581518018189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.96245714521974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61932470129551</v>
+        <v>26.71965211956289</v>
       </c>
       <c r="C10">
-        <v>24.79575871062837</v>
+        <v>18.56884502319959</v>
       </c>
       <c r="D10">
-        <v>4.409221368675619</v>
+        <v>3.447235320328695</v>
       </c>
       <c r="E10">
-        <v>13.0648567950003</v>
+        <v>38.52855738880705</v>
       </c>
       <c r="F10">
-        <v>48.18208423104517</v>
+        <v>43.59745669568404</v>
       </c>
       <c r="I10">
-        <v>29.18129678120885</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.51022587433643</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.83147500771956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.54965332620481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.66302395934283</v>
+        <v>27.77971934080348</v>
       </c>
       <c r="C11">
-        <v>25.80159352343351</v>
+        <v>19.28253420608026</v>
       </c>
       <c r="D11">
-        <v>4.434544699302494</v>
+        <v>3.412928937966011</v>
       </c>
       <c r="E11">
-        <v>13.61951777300204</v>
+        <v>40.23187316190262</v>
       </c>
       <c r="F11">
-        <v>49.95720531126661</v>
+        <v>45.2636599796406</v>
       </c>
       <c r="I11">
-        <v>30.07901976564068</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.41838134639008</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.7777192733939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.73355932796676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05324194050315</v>
+        <v>28.17646875730075</v>
       </c>
       <c r="C12">
-        <v>26.17836313785343</v>
+        <v>19.55012951057899</v>
       </c>
       <c r="D12">
-        <v>4.445312546164762</v>
+        <v>3.401017932248799</v>
       </c>
       <c r="E12">
-        <v>13.83079963008241</v>
+        <v>40.87495030006004</v>
       </c>
       <c r="F12">
-        <v>50.6681541045027</v>
+        <v>45.92047098285476</v>
       </c>
       <c r="I12">
-        <v>30.42089682170245</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.75848029701492</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.13222236439394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.21586193526279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96941630621541</v>
+        <v>28.09121988045931</v>
       </c>
       <c r="C13">
-        <v>26.09739326435901</v>
+        <v>19.49260903567303</v>
       </c>
       <c r="D13">
-        <v>4.44293840056566</v>
+        <v>3.403531158377086</v>
       </c>
       <c r="E13">
-        <v>13.78535713402061</v>
+        <v>40.7365081039409</v>
       </c>
       <c r="F13">
-        <v>50.51517678717276</v>
+        <v>45.77907343366043</v>
       </c>
       <c r="I13">
-        <v>30.34717487563536</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.68539433559729</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.0560353192385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.10549223121675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.695224961585</v>
+        <v>27.81245038608762</v>
       </c>
       <c r="C14">
-        <v>25.83266992616052</v>
+        <v>19.30460014238126</v>
       </c>
       <c r="D14">
-        <v>4.435405999390047</v>
+        <v>3.411925949614285</v>
       </c>
       <c r="E14">
-        <v>13.63692803404825</v>
+        <v>40.28480756477084</v>
       </c>
       <c r="F14">
-        <v>50.01575918171809</v>
+        <v>45.31772424502034</v>
       </c>
       <c r="I14">
-        <v>30.10710512560598</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.44643459413113</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.80695802894947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.77053856940519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52663722361622</v>
+        <v>27.64110497999946</v>
       </c>
       <c r="C15">
-        <v>25.66999935582005</v>
+        <v>19.18910611302843</v>
       </c>
       <c r="D15">
-        <v>4.430950592745273</v>
+        <v>3.417215914084752</v>
       </c>
       <c r="E15">
-        <v>13.54582623626483</v>
+        <v>40.00793101856872</v>
       </c>
       <c r="F15">
-        <v>49.72005140322949</v>
+        <v>45.03494375285337</v>
       </c>
       <c r="I15">
-        <v>29.96031898361941</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.29958567249958</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65390889494953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.57723252341775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55038951209171</v>
+        <v>26.64968831086492</v>
       </c>
       <c r="C16">
-        <v>24.72941935909977</v>
+        <v>18.52180673045228</v>
       </c>
       <c r="D16">
-        <v>4.407722473013299</v>
+        <v>3.44961565261326</v>
       </c>
       <c r="E16">
-        <v>13.03344605269893</v>
+        <v>38.41687449399536</v>
       </c>
       <c r="F16">
-        <v>48.06610252524152</v>
+        <v>43.49184956819693</v>
       </c>
       <c r="I16">
-        <v>29.12287692450431</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.45031614593903</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.7690740117965</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.47246943678693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.94206845856095</v>
+        <v>26.03254966881023</v>
       </c>
       <c r="C17">
-        <v>24.14450238533559</v>
+        <v>18.10722975325493</v>
       </c>
       <c r="D17">
-        <v>4.395400514988316</v>
+        <v>3.471171222736216</v>
       </c>
       <c r="E17">
-        <v>12.75808534147531</v>
+        <v>37.43551687433947</v>
       </c>
       <c r="F17">
-        <v>47.04808650855401</v>
+        <v>42.5660425642218</v>
       </c>
       <c r="I17">
-        <v>28.61216417255871</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.92201302153327</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.21892861716069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.79688413612511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58857343877549</v>
+        <v>25.67413481961671</v>
       </c>
       <c r="C18">
-        <v>23.80501145052303</v>
+        <v>17.86673323436214</v>
       </c>
       <c r="D18">
-        <v>4.388973395253936</v>
+        <v>3.484121061680395</v>
       </c>
       <c r="E18">
-        <v>12.59959913101373</v>
+        <v>36.86861389022022</v>
       </c>
       <c r="F18">
-        <v>46.46111673507734</v>
+        <v>42.0331727224821</v>
       </c>
       <c r="I18">
-        <v>28.3194264693879</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.61531525334565</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.89965993310327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.40891436570553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46825426558604</v>
+        <v>25.55217360727621</v>
       </c>
       <c r="C19">
-        <v>23.68952551984798</v>
+        <v>17.78494308275296</v>
       </c>
       <c r="D19">
-        <v>4.38690630174317</v>
+        <v>3.488594724429019</v>
       </c>
       <c r="E19">
-        <v>12.54591469587795</v>
+        <v>36.67620463553669</v>
       </c>
       <c r="F19">
-        <v>46.26211650259068</v>
+        <v>41.85266884541314</v>
       </c>
       <c r="I19">
-        <v>28.22047564273488</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.51097319533915</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.79106020430382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.27764407462912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.00719529959839</v>
+        <v>26.09859887228598</v>
       </c>
       <c r="C20">
-        <v>24.20708129261285</v>
+        <v>18.15157086533473</v>
       </c>
       <c r="D20">
-        <v>4.396642835979224</v>
+        <v>3.468818121094081</v>
       </c>
       <c r="E20">
-        <v>12.78740757299215</v>
+        <v>37.54022706120442</v>
       </c>
       <c r="F20">
-        <v>47.15660048424296</v>
+        <v>42.66462974589545</v>
       </c>
       <c r="I20">
-        <v>28.66642371433538</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.97854170165426</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.27778325335397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.86873461480834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.77589357796763</v>
+        <v>27.89445380423264</v>
       </c>
       <c r="C21">
-        <v>25.91053290792619</v>
+        <v>19.35989148130383</v>
       </c>
       <c r="D21">
-        <v>4.437585130498972</v>
+        <v>3.409428911644462</v>
       </c>
       <c r="E21">
-        <v>13.68056306238645</v>
+        <v>40.41752056022504</v>
       </c>
       <c r="F21">
-        <v>50.16253628370502</v>
+        <v>45.45327140503873</v>
       </c>
       <c r="I21">
-        <v>30.17756372173477</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.51672174168711</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.88021758631862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.86329524655579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.90291148065308</v>
+        <v>29.04122767541945</v>
       </c>
       <c r="C22">
-        <v>27.00013065985624</v>
+        <v>20.13433190004704</v>
       </c>
       <c r="D22">
-        <v>4.471300033396878</v>
+        <v>3.377050952460418</v>
       </c>
       <c r="E22">
-        <v>14.29314484167852</v>
+        <v>42.28777768806746</v>
       </c>
       <c r="F22">
-        <v>52.22645302647953</v>
+        <v>47.36303927136127</v>
       </c>
       <c r="I22">
-        <v>31.17667818782198</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.5001546162223</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.9055176471646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.34211689821463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30387933880062</v>
+        <v>28.43142961211602</v>
       </c>
       <c r="C23">
-        <v>26.42057122340583</v>
+        <v>19.72223578954396</v>
       </c>
       <c r="D23">
-        <v>4.452612475035538</v>
+        <v>3.393657385083415</v>
       </c>
       <c r="E23">
-        <v>13.96685413153635</v>
+        <v>41.28988192302743</v>
       </c>
       <c r="F23">
-        <v>51.1263734405815</v>
+        <v>46.3442354425186</v>
       </c>
       <c r="I23">
-        <v>30.64223266022594</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.97709556608366</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.36013090452014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.5466610778905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.97776320924349</v>
+        <v>26.06874932272383</v>
       </c>
       <c r="C24">
-        <v>24.17879941776797</v>
+        <v>18.13153097757895</v>
       </c>
       <c r="D24">
-        <v>4.396079147832755</v>
+        <v>3.469880238016507</v>
       </c>
       <c r="E24">
-        <v>12.77415156096628</v>
+        <v>37.4928961375547</v>
       </c>
       <c r="F24">
-        <v>47.10754665292522</v>
+        <v>42.62006044029368</v>
       </c>
       <c r="I24">
-        <v>28.64189026535666</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.95299436868746</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.25118439731012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.83624970663818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32954617598068</v>
+        <v>23.38672974515354</v>
       </c>
       <c r="C25">
-        <v>21.64217108824348</v>
+        <v>16.33655054889188</v>
       </c>
       <c r="D25">
-        <v>4.359879872468304</v>
+        <v>3.57273285803216</v>
       </c>
       <c r="E25">
-        <v>11.61453263523828</v>
+        <v>33.29946064498655</v>
       </c>
       <c r="F25">
-        <v>42.79510356359813</v>
+        <v>38.72058649927262</v>
       </c>
       <c r="I25">
-        <v>26.52244502635316</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.66016192860586</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.86646043311245</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.0129639431197</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28068125842616</v>
+        <v>21.10810942818466</v>
       </c>
       <c r="C2">
-        <v>14.93473381853175</v>
+        <v>15.65774176947664</v>
       </c>
       <c r="D2">
-        <v>3.660525277598298</v>
+        <v>4.131963038922057</v>
       </c>
       <c r="E2">
-        <v>30.08059395220752</v>
+        <v>11.23181791072826</v>
       </c>
       <c r="F2">
-        <v>35.81876796700521</v>
+        <v>16.67851513859696</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.91367351165842</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.86357858916181</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.35043457761502</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.94023162306373</v>
+        <v>12.60330786782538</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76478032060031</v>
+        <v>19.77417284293664</v>
       </c>
       <c r="C3">
-        <v>13.93002251451489</v>
+        <v>14.72423588421715</v>
       </c>
       <c r="D3">
-        <v>3.725569683468788</v>
+        <v>3.978301520293428</v>
       </c>
       <c r="E3">
-        <v>27.79899097996804</v>
+        <v>10.66664478301427</v>
       </c>
       <c r="F3">
-        <v>33.83009502004434</v>
+        <v>16.11351935403338</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.20463819176851</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.57279591490955</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.16929098596146</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.53697596044685</v>
+        <v>12.42822451093721</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.78839622665757</v>
+        <v>18.90879373688591</v>
       </c>
       <c r="C4">
-        <v>13.28491630365942</v>
+        <v>14.12066116200022</v>
       </c>
       <c r="D4">
-        <v>3.767761907765315</v>
+        <v>3.880728701633142</v>
       </c>
       <c r="E4">
-        <v>26.34369664608611</v>
+        <v>10.32198663829291</v>
       </c>
       <c r="F4">
-        <v>32.59871277733349</v>
+        <v>15.78192271702395</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.39837786724406</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.74260262863821</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.40513103286962</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.67640703938562</v>
+        <v>12.34016602670544</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37878625647441</v>
+        <v>18.54449563470222</v>
       </c>
       <c r="C5">
-        <v>13.01478347164877</v>
+        <v>13.8671094269301</v>
       </c>
       <c r="D5">
-        <v>3.785464561123222</v>
+        <v>3.840194381623841</v>
       </c>
       <c r="E5">
-        <v>25.73632607194342</v>
+        <v>10.18231252723448</v>
       </c>
       <c r="F5">
-        <v>32.09456485291901</v>
+        <v>15.65079046729629</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.4808609744606</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.39462912008028</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.08390733206476</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.32613406034238</v>
+        <v>12.30901590940789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31005556910531</v>
+        <v>18.48330108895967</v>
       </c>
       <c r="C6">
-        <v>12.96948643034589</v>
+        <v>13.82455096157784</v>
       </c>
       <c r="D6">
-        <v>3.788433325155639</v>
+        <v>3.833418236483431</v>
       </c>
       <c r="E6">
-        <v>25.6345896060828</v>
+        <v>10.15917251417764</v>
       </c>
       <c r="F6">
-        <v>32.01071948373795</v>
+        <v>15.62926142215833</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.49476359242894</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.33625950891707</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.02997449690729</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.2680028067921</v>
+        <v>12.3041244593077</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.78291988229726</v>
+        <v>18.90392783498181</v>
       </c>
       <c r="C7">
-        <v>13.28130272448596</v>
+        <v>14.1172723188761</v>
       </c>
       <c r="D7">
-        <v>3.767998659764578</v>
+        <v>3.880185115874222</v>
       </c>
       <c r="E7">
-        <v>26.33556425330942</v>
+        <v>10.32009953795303</v>
       </c>
       <c r="F7">
-        <v>32.59192274682863</v>
+        <v>15.78013785799947</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.39947628051678</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.73794910263576</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.4008386996196</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.6716811834538</v>
+        <v>12.33972697618032</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.76730526405323</v>
+        <v>20.65778108203387</v>
       </c>
       <c r="C8">
-        <v>14.59406380986102</v>
+        <v>15.34220340294521</v>
       </c>
       <c r="D8">
-        <v>3.682446065120703</v>
+        <v>4.079671024471048</v>
       </c>
       <c r="E8">
-        <v>29.30476876477714</v>
+        <v>11.03655799778303</v>
       </c>
       <c r="F8">
-        <v>35.13532125644259</v>
+        <v>16.48061648199452</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.01069929078279</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.42620409737573</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.95123264245536</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.45623895020839</v>
+        <v>12.53881741997885</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.30957782449981</v>
+        <v>23.73023713761982</v>
       </c>
       <c r="C9">
-        <v>16.95293775972574</v>
+        <v>17.50183238042192</v>
       </c>
       <c r="D9">
-        <v>3.53589627359163</v>
+        <v>4.443856458886588</v>
       </c>
       <c r="E9">
-        <v>34.72965784521247</v>
+        <v>12.45370239800855</v>
       </c>
       <c r="F9">
-        <v>40.03810233365601</v>
+        <v>17.96911730191708</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9.381665171551095</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.44850059957879</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.68486527125505</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.96245714521974</v>
+        <v>13.08925119557748</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.71965211956289</v>
+        <v>25.76613886865188</v>
       </c>
       <c r="C10">
-        <v>18.56884502319959</v>
+        <v>18.94031517195342</v>
       </c>
       <c r="D10">
-        <v>3.447235320328695</v>
+        <v>4.693380315709677</v>
       </c>
       <c r="E10">
-        <v>38.52855738880705</v>
+        <v>13.6962051950908</v>
       </c>
       <c r="F10">
-        <v>43.59745669568404</v>
+        <v>19.12420785904629</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>9.022902510032567</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.51022587433643</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.51034452115408</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.54965332620481</v>
+        <v>13.5974454948084</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.77971934080348</v>
+        <v>26.64495874625527</v>
       </c>
       <c r="C11">
-        <v>19.28253420608026</v>
+        <v>19.56275588878131</v>
       </c>
       <c r="D11">
-        <v>3.412928937966011</v>
+        <v>4.802728557468583</v>
       </c>
       <c r="E11">
-        <v>40.23187316190262</v>
+        <v>14.27325215456988</v>
       </c>
       <c r="F11">
-        <v>45.2636599796406</v>
+        <v>19.66148826090226</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.887971901263857</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.41838134639008</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.30219271121675</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.73355932796676</v>
+        <v>13.85209332700058</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.17646875730075</v>
+        <v>26.97100992615923</v>
       </c>
       <c r="C12">
-        <v>19.55012951057899</v>
+        <v>19.79389795914774</v>
       </c>
       <c r="D12">
-        <v>3.401017932248799</v>
+        <v>4.843521645009089</v>
       </c>
       <c r="E12">
-        <v>40.87495030006004</v>
+        <v>14.48948814909571</v>
       </c>
       <c r="F12">
-        <v>45.92047098285476</v>
+        <v>19.86653986921126</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.841501023854381</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.75848029701492</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.59660261513612</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.21586193526279</v>
+        <v>13.9519491460868</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.09121988045931</v>
+        <v>26.90108753619574</v>
       </c>
       <c r="C13">
-        <v>19.49260903567303</v>
+        <v>19.744319733698</v>
       </c>
       <c r="D13">
-        <v>3.403531158377086</v>
+        <v>4.834763686798818</v>
       </c>
       <c r="E13">
-        <v>40.7365081039409</v>
+        <v>14.44301709744642</v>
       </c>
       <c r="F13">
-        <v>45.77907343366043</v>
+        <v>19.8223087839121</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.85129419260919</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.68539433559729</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.5334366563424</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.10549223121675</v>
+        <v>13.93029031978725</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.81245038608762</v>
+        <v>26.67191781954511</v>
       </c>
       <c r="C14">
-        <v>19.30460014238126</v>
+        <v>19.58186332631766</v>
       </c>
       <c r="D14">
-        <v>3.411925949614285</v>
+        <v>4.806097030437291</v>
       </c>
       <c r="E14">
-        <v>40.28480756477084</v>
+        <v>14.29108693839815</v>
       </c>
       <c r="F14">
-        <v>45.31772424502034</v>
+        <v>19.67832651933699</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.884052633515012</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.44643459413113</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.32652251708002</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.77053856940519</v>
+        <v>13.86023960225378</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.64110497999946</v>
+        <v>26.5306692671865</v>
       </c>
       <c r="C15">
-        <v>19.18910611302843</v>
+        <v>19.48176092553254</v>
       </c>
       <c r="D15">
-        <v>3.417215914084752</v>
+        <v>4.788457395837251</v>
       </c>
       <c r="E15">
-        <v>40.00793101856872</v>
+        <v>14.19773241993025</v>
       </c>
       <c r="F15">
-        <v>45.03494375285337</v>
+        <v>19.59033828887505</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.90473790638949</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.29958567249958</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>23.19907560419989</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.57723252341775</v>
+        <v>13.81777905043586</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.64968831086492</v>
+        <v>25.70775912068765</v>
       </c>
       <c r="C16">
-        <v>18.52180673045228</v>
+        <v>18.89899689677611</v>
       </c>
       <c r="D16">
-        <v>3.44961565261326</v>
+        <v>4.68614893892057</v>
       </c>
       <c r="E16">
-        <v>38.41687449399536</v>
+        <v>13.65816789880222</v>
       </c>
       <c r="F16">
-        <v>43.49184956819693</v>
+        <v>19.08932368554779</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.032335938406238</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.45031614593903</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.45782757933043</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.47246943678693</v>
+        <v>13.58128056719809</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03254966881023</v>
+        <v>25.19085419643763</v>
       </c>
       <c r="C17">
-        <v>18.10722975325493</v>
+        <v>18.5333287683597</v>
       </c>
       <c r="D17">
-        <v>3.471171222736216</v>
+        <v>4.622307458773022</v>
       </c>
       <c r="E17">
-        <v>37.43551687433947</v>
+        <v>13.32296866521309</v>
       </c>
       <c r="F17">
-        <v>42.5660425642218</v>
+        <v>18.78491316240776</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.118234054702636</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.92201302153327</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.99328500348301</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.79688413612511</v>
+        <v>13.44224762814055</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67413481961671</v>
+        <v>24.88908544348351</v>
       </c>
       <c r="C18">
-        <v>17.86673323436214</v>
+        <v>18.31999807018397</v>
       </c>
       <c r="D18">
-        <v>3.484121061680395</v>
+        <v>4.585196580792857</v>
       </c>
       <c r="E18">
-        <v>36.86861389022022</v>
+        <v>13.1285924891644</v>
       </c>
       <c r="F18">
-        <v>42.0331727224821</v>
+        <v>18.61094204284555</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.170264435675863</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.61531525334565</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.7224551582216</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.40891436570553</v>
+        <v>13.36448628121208</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55217360727621</v>
+        <v>24.78614407674906</v>
       </c>
       <c r="C19">
-        <v>17.78494308275296</v>
+        <v>18.24725060876052</v>
       </c>
       <c r="D19">
-        <v>3.488594724429019</v>
+        <v>4.572564883796398</v>
       </c>
       <c r="E19">
-        <v>36.67620463553669</v>
+        <v>13.06250566828821</v>
       </c>
       <c r="F19">
-        <v>41.85266884541314</v>
+        <v>18.55223400182552</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.188315614686312</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.51097319533915</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.63012923825057</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.27764407462912</v>
+        <v>13.33853486318538</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.09859887228598</v>
+        <v>25.24634061790051</v>
       </c>
       <c r="C20">
-        <v>18.15157086533473</v>
+        <v>18.57256590998189</v>
       </c>
       <c r="D20">
-        <v>3.468818121094081</v>
+        <v>4.629144084012825</v>
       </c>
       <c r="E20">
-        <v>37.54022706120442</v>
+        <v>13.35881376167799</v>
       </c>
       <c r="F20">
-        <v>42.66462974589545</v>
+        <v>18.81720334084067</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.108814605566236</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.97854170165426</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.04311209999507</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.86873461480834</v>
+        <v>13.45681912413956</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.89445380423264</v>
+        <v>26.73941284018417</v>
       </c>
       <c r="C21">
-        <v>19.35989148130383</v>
+        <v>19.62970425890482</v>
       </c>
       <c r="D21">
-        <v>3.409428911644462</v>
+        <v>4.814533918560702</v>
       </c>
       <c r="E21">
-        <v>40.41752056022504</v>
+        <v>14.33577330791637</v>
       </c>
       <c r="F21">
-        <v>45.45327140503873</v>
+        <v>19.72057501579511</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.874300448061092</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.51672174168711</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.38744515554812</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.86329524655579</v>
+        <v>13.88072185264412</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.04122767541945</v>
+        <v>27.6759796207595</v>
       </c>
       <c r="C22">
-        <v>20.13433190004704</v>
+        <v>20.29403090076049</v>
       </c>
       <c r="D22">
-        <v>3.377050952460418</v>
+        <v>4.932108649078986</v>
       </c>
       <c r="E22">
-        <v>42.28777768806746</v>
+        <v>14.96105869809665</v>
       </c>
       <c r="F22">
-        <v>47.36303927136127</v>
+        <v>20.32024912436115</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.748284599299913</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.5001546162223</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.23435683102266</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.34211689821463</v>
+        <v>14.17775461698739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.43142961211602</v>
+        <v>27.17968286823339</v>
       </c>
       <c r="C23">
-        <v>19.72223578954396</v>
+        <v>19.94188657227428</v>
       </c>
       <c r="D23">
-        <v>3.393657385083415</v>
+        <v>4.869689639847227</v>
       </c>
       <c r="E23">
-        <v>41.28988192302743</v>
+        <v>14.62849623436097</v>
       </c>
       <c r="F23">
-        <v>46.3442354425186</v>
+        <v>19.9993714758114</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.812849076859411</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.97709556608366</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.78520737338339</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.5466610778905</v>
+        <v>14.01737930347143</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.06874932272383</v>
+        <v>25.22126951852536</v>
       </c>
       <c r="C24">
-        <v>18.13153097757895</v>
+        <v>18.55483646617685</v>
       </c>
       <c r="D24">
-        <v>3.469880238016507</v>
+        <v>4.626054513926706</v>
       </c>
       <c r="E24">
-        <v>37.4928961375547</v>
+        <v>13.34261339053179</v>
       </c>
       <c r="F24">
-        <v>42.62006044029368</v>
+        <v>18.80260170800999</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.113064937193666</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.95299436868746</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.02059698288349</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.83624970663818</v>
+        <v>13.45022459404549</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.38672974515354</v>
+        <v>22.93814918451885</v>
       </c>
       <c r="C25">
-        <v>16.33655054889188</v>
+        <v>16.94365099909845</v>
       </c>
       <c r="D25">
-        <v>3.57273285803216</v>
+        <v>4.348405611318698</v>
       </c>
       <c r="E25">
-        <v>33.29946064498655</v>
+        <v>12.06981148120319</v>
       </c>
       <c r="F25">
-        <v>38.72058649927262</v>
+        <v>17.55505430894894</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9.535466320973415</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.66016192860586</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.9778055407721</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.0129639431197</v>
+        <v>12.92248679355982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10810942818466</v>
+        <v>12.54690179691499</v>
       </c>
       <c r="C2">
-        <v>15.65774176947664</v>
+        <v>9.428555705286486</v>
       </c>
       <c r="D2">
-        <v>4.131963038922057</v>
+        <v>3.966546793897766</v>
       </c>
       <c r="E2">
-        <v>11.23181791072826</v>
+        <v>11.535794073821</v>
       </c>
       <c r="F2">
-        <v>16.67851513859696</v>
+        <v>20.30730892550124</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>9.91367351165842</v>
+        <v>17.13428314545413</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.35043457761502</v>
+        <v>14.54929968178754</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.60330786782538</v>
+        <v>18.069893364678</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77417284293664</v>
+        <v>11.86650553936505</v>
       </c>
       <c r="C3">
-        <v>14.72423588421715</v>
+        <v>8.922758593140493</v>
       </c>
       <c r="D3">
-        <v>3.978301520293428</v>
+        <v>3.910455146537271</v>
       </c>
       <c r="E3">
-        <v>10.66664478301427</v>
+        <v>11.47162278415196</v>
       </c>
       <c r="F3">
-        <v>16.11351935403338</v>
+        <v>20.31224683771509</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>10.20463819176851</v>
+        <v>17.27335154175093</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.16929098596146</v>
+        <v>14.22167374363958</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.42822451093721</v>
+        <v>18.14189883606025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.90879373688591</v>
+        <v>11.42797464107968</v>
       </c>
       <c r="C4">
-        <v>14.12066116200022</v>
+        <v>8.595601600096757</v>
       </c>
       <c r="D4">
-        <v>3.880728701633142</v>
+        <v>3.875358465795483</v>
       </c>
       <c r="E4">
-        <v>10.32198663829291</v>
+        <v>11.4373520887251</v>
       </c>
       <c r="F4">
-        <v>15.78192271702395</v>
+        <v>20.32376456729335</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>10.39837786724406</v>
+        <v>17.36395814447174</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.40513103286962</v>
+        <v>14.01934933536985</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.34016602670544</v>
+        <v>18.1925679151638</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54449563470222</v>
+        <v>11.24419623374694</v>
       </c>
       <c r="C5">
-        <v>13.8671094269301</v>
+        <v>8.458185047238574</v>
       </c>
       <c r="D5">
-        <v>3.840194381623841</v>
+        <v>3.860901676604904</v>
       </c>
       <c r="E5">
-        <v>10.18231252723448</v>
+        <v>11.4246862178146</v>
       </c>
       <c r="F5">
-        <v>15.65079046729629</v>
+        <v>20.33058498205351</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>10.4808609744606</v>
+        <v>17.4021913446437</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.08390733206476</v>
+        <v>13.93672711513701</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.30901590940789</v>
+        <v>18.21482996576221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48330108895967</v>
+        <v>11.21337845651545</v>
       </c>
       <c r="C6">
-        <v>13.82455096157784</v>
+        <v>8.435122191506505</v>
       </c>
       <c r="D6">
-        <v>3.833418236483431</v>
+        <v>3.858492108761521</v>
       </c>
       <c r="E6">
-        <v>10.15917251417764</v>
+        <v>11.42266178314007</v>
       </c>
       <c r="F6">
-        <v>15.62926142215833</v>
+        <v>20.33184571673729</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>10.49476359242894</v>
+        <v>17.40861902445337</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.02997449690729</v>
+        <v>13.9230008245282</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.3041244593077</v>
+        <v>18.21862374933678</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.90392783498181</v>
+        <v>11.42551646631549</v>
       </c>
       <c r="C7">
-        <v>14.1172723188761</v>
+        <v>8.59376483089302</v>
       </c>
       <c r="D7">
-        <v>3.880185115874222</v>
+        <v>3.875164108565561</v>
       </c>
       <c r="E7">
-        <v>10.32009953795303</v>
+        <v>11.43717599934899</v>
       </c>
       <c r="F7">
-        <v>15.78013785799947</v>
+        <v>20.32384794913827</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>10.39947628051678</v>
+        <v>17.36446846790231</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.4008386996196</v>
+        <v>14.0182356058303</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.33972697618032</v>
+        <v>18.19286162725208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65778108203387</v>
+        <v>12.31669087702581</v>
       </c>
       <c r="C8">
-        <v>15.34220340294521</v>
+        <v>9.257641844380132</v>
       </c>
       <c r="D8">
-        <v>4.079671024471048</v>
+        <v>3.947348735587823</v>
       </c>
       <c r="E8">
-        <v>11.03655799778303</v>
+        <v>11.51260951617626</v>
       </c>
       <c r="F8">
-        <v>16.48061648199452</v>
+        <v>20.30724673972444</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>10.01069929078279</v>
+        <v>17.18114978252266</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.95123264245536</v>
+        <v>14.43664501186319</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.53881741997885</v>
+        <v>18.09337485398065</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73023713761982</v>
+        <v>13.89437944252291</v>
       </c>
       <c r="C9">
-        <v>17.50183238042192</v>
+        <v>10.42524318532946</v>
       </c>
       <c r="D9">
-        <v>4.443856458886588</v>
+        <v>4.083254698881213</v>
       </c>
       <c r="E9">
-        <v>12.45370239800855</v>
+        <v>11.70068904893029</v>
       </c>
       <c r="F9">
-        <v>17.96911730191708</v>
+        <v>20.34223137451643</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>9.381665171551095</v>
+        <v>16.86315111280813</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.68486527125505</v>
+        <v>15.24294947752669</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.08925119557748</v>
+        <v>17.94993617654534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76613886865188</v>
+        <v>14.94460345886195</v>
       </c>
       <c r="C10">
-        <v>18.94031517195342</v>
+        <v>11.19862334985471</v>
       </c>
       <c r="D10">
-        <v>4.693380315709677</v>
+        <v>4.17909443990309</v>
       </c>
       <c r="E10">
-        <v>13.6962051950908</v>
+        <v>11.86242023282504</v>
       </c>
       <c r="F10">
-        <v>19.12420785904629</v>
+        <v>20.40923989164066</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>9.022902510032567</v>
+        <v>16.6549334642763</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.51034452115408</v>
+        <v>15.82037789357164</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.5974454948084</v>
+        <v>17.87658233447673</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.64495874625527</v>
+        <v>15.3979629929915</v>
       </c>
       <c r="C11">
-        <v>19.56275588878131</v>
+        <v>11.53175679950032</v>
       </c>
       <c r="D11">
-        <v>4.802728557468583</v>
+        <v>4.221710528619367</v>
       </c>
       <c r="E11">
-        <v>14.27325215456988</v>
+        <v>11.94085970524855</v>
       </c>
       <c r="F11">
-        <v>19.66148826090226</v>
+        <v>20.44867126401433</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>8.887971901263857</v>
+        <v>16.56575881297943</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.30219271121675</v>
+        <v>16.07859846550229</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.85209332700058</v>
+        <v>17.85027171174593</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.97100992615923</v>
+        <v>15.56608437222396</v>
       </c>
       <c r="C12">
-        <v>19.79389795914774</v>
+        <v>11.65519864166575</v>
       </c>
       <c r="D12">
-        <v>4.843521645009089</v>
+        <v>4.237697966628852</v>
       </c>
       <c r="E12">
-        <v>14.48948814909571</v>
+        <v>11.97123840520257</v>
       </c>
       <c r="F12">
-        <v>19.86653986921126</v>
+        <v>20.46488404677578</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>8.841501023854381</v>
+        <v>16.53279100374435</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.59660261513612</v>
+        <v>16.17564655711249</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.9519491460868</v>
+        <v>17.84133124336472</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90108753619574</v>
+        <v>15.53003523569678</v>
       </c>
       <c r="C13">
-        <v>19.744319733698</v>
+        <v>11.62873398901241</v>
       </c>
       <c r="D13">
-        <v>4.834763686798818</v>
+        <v>4.234261613931228</v>
       </c>
       <c r="E13">
-        <v>14.44301709744642</v>
+        <v>11.96466618142933</v>
       </c>
       <c r="F13">
-        <v>19.8223087839121</v>
+        <v>20.46133548112117</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>8.85129419260919</v>
+        <v>16.53985554396108</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.5334366563424</v>
+        <v>16.15477960181214</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.93029031978725</v>
+        <v>17.84321112683374</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.67191781954511</v>
+        <v>15.41186594663051</v>
       </c>
       <c r="C14">
-        <v>19.58186332631766</v>
+        <v>11.54196682452734</v>
       </c>
       <c r="D14">
-        <v>4.806097030437291</v>
+        <v>4.22302888894238</v>
       </c>
       <c r="E14">
-        <v>14.29108693839815</v>
+        <v>11.94334559077719</v>
       </c>
       <c r="F14">
-        <v>19.67832651933699</v>
+        <v>20.44997946887235</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>8.884052633515012</v>
+        <v>16.56303046417862</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.32652251708002</v>
+        <v>16.08659790346302</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.86023960225378</v>
+        <v>17.84951563333662</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.5306692671865</v>
+        <v>15.33901949575846</v>
       </c>
       <c r="C15">
-        <v>19.48176092553254</v>
+        <v>11.4884661357592</v>
       </c>
       <c r="D15">
-        <v>4.788457395837251</v>
+        <v>4.216128676032954</v>
       </c>
       <c r="E15">
-        <v>14.19773241993025</v>
+        <v>11.93037330717223</v>
       </c>
       <c r="F15">
-        <v>19.59033828887505</v>
+        <v>20.44319018936531</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>8.90473790638949</v>
+        <v>16.57733015036179</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.19907560419989</v>
+        <v>16.04473632765118</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.81777905043586</v>
+        <v>17.8535107440574</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70775912068765</v>
+        <v>14.91448010943389</v>
       </c>
       <c r="C16">
-        <v>18.89899689677611</v>
+        <v>11.17647434534289</v>
       </c>
       <c r="D16">
-        <v>4.68614893892057</v>
+        <v>4.176288827940787</v>
       </c>
       <c r="E16">
-        <v>13.65816789880222</v>
+        <v>11.85738991654568</v>
       </c>
       <c r="F16">
-        <v>19.08932368554779</v>
+        <v>20.406842587432</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>9.032335938406238</v>
+        <v>16.66087309395168</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.45782757933043</v>
+        <v>15.80340475758274</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.58128056719809</v>
+        <v>17.87844451041093</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19085419643763</v>
+        <v>14.6477533168446</v>
       </c>
       <c r="C17">
-        <v>18.5333287683597</v>
+        <v>10.98027504190382</v>
       </c>
       <c r="D17">
-        <v>4.622307458773022</v>
+        <v>4.15159023928967</v>
       </c>
       <c r="E17">
-        <v>13.32296866521309</v>
+        <v>11.81384674044101</v>
       </c>
       <c r="F17">
-        <v>18.78491316240776</v>
+        <v>20.38683313349658</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>9.118234054702636</v>
+        <v>16.71354643489207</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99328500348301</v>
+        <v>15.6541458291898</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.44224762814055</v>
+        <v>17.89555415004017</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88908544348351</v>
+        <v>14.49204526988548</v>
       </c>
       <c r="C18">
-        <v>18.31999807018397</v>
+        <v>10.86566894836808</v>
       </c>
       <c r="D18">
-        <v>4.585196580792857</v>
+        <v>4.137292365557053</v>
       </c>
       <c r="E18">
-        <v>13.1285924891644</v>
+        <v>11.78926157425524</v>
       </c>
       <c r="F18">
-        <v>18.61094204284555</v>
+        <v>20.37616703969143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>9.170264435675863</v>
+        <v>16.74436441596642</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.7224551582216</v>
+        <v>15.56788195363555</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.36448628121208</v>
+        <v>17.90605910556143</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.78614407674906</v>
+        <v>14.43893289096702</v>
       </c>
       <c r="C19">
-        <v>18.24725060876052</v>
+        <v>10.82656422903293</v>
       </c>
       <c r="D19">
-        <v>4.572564883796398</v>
+        <v>4.132435853305043</v>
       </c>
       <c r="E19">
-        <v>13.06250566828821</v>
+        <v>11.78101713145296</v>
       </c>
       <c r="F19">
-        <v>18.55223400182552</v>
+        <v>20.37270057656984</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>9.188315614686312</v>
+        <v>16.7548883520915</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.63012923825057</v>
+        <v>15.53860633787325</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.33853486318538</v>
+        <v>17.90972968774707</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.24634061790051</v>
+        <v>14.6763846301379</v>
       </c>
       <c r="C20">
-        <v>18.57256590998189</v>
+        <v>11.00134286149211</v>
       </c>
       <c r="D20">
-        <v>4.629144084012825</v>
+        <v>4.154229025037043</v>
       </c>
       <c r="E20">
-        <v>13.35881376167799</v>
+        <v>11.81843457838212</v>
       </c>
       <c r="F20">
-        <v>18.81720334084067</v>
+        <v>20.38887598053907</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>9.108814605566236</v>
+        <v>16.70788525317072</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04311209999507</v>
+        <v>15.67007825476693</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.45681912413956</v>
+        <v>17.89366402545307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73941284018417</v>
+        <v>15.44667197253517</v>
       </c>
       <c r="C21">
-        <v>19.62970425890482</v>
+        <v>11.56752610205544</v>
       </c>
       <c r="D21">
-        <v>4.814533918560702</v>
+        <v>4.226332363879006</v>
       </c>
       <c r="E21">
-        <v>14.33577330791637</v>
+        <v>11.94958984030701</v>
       </c>
       <c r="F21">
-        <v>19.72057501579511</v>
+        <v>20.45328029826675</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>8.874300448061092</v>
+        <v>16.55620166963541</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.38744515554812</v>
+        <v>16.1066451682839</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.88072185264412</v>
+        <v>17.84763602965576</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.6759796207595</v>
+        <v>15.92935687388671</v>
       </c>
       <c r="C22">
-        <v>20.29403090076049</v>
+        <v>11.92176558412576</v>
       </c>
       <c r="D22">
-        <v>4.932108649078986</v>
+        <v>4.272575763138371</v>
       </c>
       <c r="E22">
-        <v>14.96105869809665</v>
+        <v>12.03923133753449</v>
       </c>
       <c r="F22">
-        <v>20.32024912436115</v>
+        <v>20.50283434154342</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>8.748284599299913</v>
+        <v>16.46173647047235</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.23435683102266</v>
+        <v>16.38764722720541</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.17775461698739</v>
+        <v>17.82351885165478</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.17968286823339</v>
+        <v>15.67365003035576</v>
       </c>
       <c r="C23">
-        <v>19.94188657227428</v>
+        <v>11.73415234308457</v>
       </c>
       <c r="D23">
-        <v>4.869689639847227</v>
+        <v>4.247978253242211</v>
       </c>
       <c r="E23">
-        <v>14.62849623436097</v>
+        <v>11.9910375145202</v>
       </c>
       <c r="F23">
-        <v>19.9993714758114</v>
+        <v>20.47570619317555</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>8.812849076859411</v>
+        <v>16.51172595601757</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.78520737338339</v>
+        <v>16.23809566929803</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.01737930347143</v>
+        <v>17.83584245701247</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22126951852536</v>
+        <v>14.66344777067217</v>
       </c>
       <c r="C24">
-        <v>18.55483646617685</v>
+        <v>10.99182373166203</v>
       </c>
       <c r="D24">
-        <v>4.626054513926706</v>
+        <v>4.153036335554767</v>
       </c>
       <c r="E24">
-        <v>13.34261339053179</v>
+        <v>11.81635901832843</v>
       </c>
       <c r="F24">
-        <v>18.80260170800999</v>
+        <v>20.38794979985088</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>9.113064937193666</v>
+        <v>16.71044300595823</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02059698288349</v>
+        <v>15.66287660872981</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.45022459404549</v>
+        <v>17.89451646932024</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93814918451885</v>
+        <v>13.4863865831932</v>
       </c>
       <c r="C25">
-        <v>16.94365099909845</v>
+        <v>10.12405879918569</v>
       </c>
       <c r="D25">
-        <v>4.348405611318698</v>
+        <v>4.04715309641329</v>
       </c>
       <c r="E25">
-        <v>12.06981148120319</v>
+        <v>11.6455957393317</v>
       </c>
       <c r="F25">
-        <v>17.55505430894894</v>
+        <v>20.32551366280238</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>9.535466320973415</v>
+        <v>16.94472447365892</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.9778055407721</v>
+        <v>15.02701620498741</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.92248679355982</v>
+        <v>17.98315233507105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.54690179691499</v>
+        <v>21.10810942818466</v>
       </c>
       <c r="C2">
-        <v>9.428555705286486</v>
+        <v>15.65774176947656</v>
       </c>
       <c r="D2">
-        <v>3.966546793897766</v>
+        <v>4.131963038921993</v>
       </c>
       <c r="E2">
-        <v>11.535794073821</v>
+        <v>11.23181791072826</v>
       </c>
       <c r="F2">
-        <v>20.30730892550124</v>
+        <v>16.67851513859698</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>17.13428314545413</v>
+        <v>9.913673511658477</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.54929968178754</v>
+        <v>18.35043457761503</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.069893364678</v>
+        <v>12.6033078678254</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.86650553936505</v>
+        <v>19.77417284293665</v>
       </c>
       <c r="C3">
-        <v>8.922758593140493</v>
+        <v>14.72423588421722</v>
       </c>
       <c r="D3">
-        <v>3.910455146537271</v>
+        <v>3.978301520293531</v>
       </c>
       <c r="E3">
-        <v>11.47162278415196</v>
+        <v>10.66664478301427</v>
       </c>
       <c r="F3">
-        <v>20.31224683771509</v>
+        <v>16.11351935403329</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>17.27335154175093</v>
+        <v>10.20463819176843</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.22167374363958</v>
+        <v>17.16929098596147</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.14189883606025</v>
+        <v>12.42822451093714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.42797464107968</v>
+        <v>18.90879373688592</v>
       </c>
       <c r="C4">
-        <v>8.595601600096757</v>
+        <v>14.12066116200012</v>
       </c>
       <c r="D4">
-        <v>3.875358465795483</v>
+        <v>3.880728701633184</v>
       </c>
       <c r="E4">
-        <v>11.4373520887251</v>
+        <v>10.32198663829288</v>
       </c>
       <c r="F4">
-        <v>20.32376456729335</v>
+        <v>15.78192271702397</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>17.36395814447174</v>
+        <v>10.39837786724408</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.01934933536985</v>
+        <v>16.40513103286959</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.1925679151638</v>
+        <v>12.3401660267055</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24419623374694</v>
+        <v>18.54449563470226</v>
       </c>
       <c r="C5">
-        <v>8.458185047238574</v>
+        <v>13.86710942693009</v>
       </c>
       <c r="D5">
-        <v>3.860901676604904</v>
+        <v>3.840194381623736</v>
       </c>
       <c r="E5">
-        <v>11.4246862178146</v>
+        <v>10.18231252723444</v>
       </c>
       <c r="F5">
-        <v>20.33058498205351</v>
+        <v>15.65079046729627</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>17.4021913446437</v>
+        <v>10.48086097446049</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.93672711513701</v>
+        <v>16.08390733206479</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.21482996576221</v>
+        <v>12.30901590940785</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21337845651545</v>
+        <v>18.48330108895966</v>
       </c>
       <c r="C6">
-        <v>8.435122191506505</v>
+        <v>13.82455096157768</v>
       </c>
       <c r="D6">
-        <v>3.858492108761521</v>
+        <v>3.833418236483455</v>
       </c>
       <c r="E6">
-        <v>11.42266178314007</v>
+        <v>10.15917251417764</v>
       </c>
       <c r="F6">
-        <v>20.33184571673729</v>
+        <v>15.62926142215844</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>17.40861902445337</v>
+        <v>10.49476359242902</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.9230008245282</v>
+        <v>16.02997449690727</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.21862374933678</v>
+        <v>12.30412445930783</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42551646631549</v>
+        <v>18.90392783498185</v>
       </c>
       <c r="C7">
-        <v>8.59376483089302</v>
+        <v>14.11727231887593</v>
       </c>
       <c r="D7">
-        <v>3.875164108565561</v>
+        <v>3.880185115874297</v>
       </c>
       <c r="E7">
-        <v>11.43717599934899</v>
+        <v>10.320099537953</v>
       </c>
       <c r="F7">
-        <v>20.32384794913827</v>
+        <v>15.78013785799946</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>17.36446846790231</v>
+        <v>10.39947628051669</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.0182356058303</v>
+        <v>16.40083869961966</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.19286162725208</v>
+        <v>12.33972697618032</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31669087702581</v>
+        <v>20.65778108203385</v>
       </c>
       <c r="C8">
-        <v>9.257641844380132</v>
+        <v>15.34220340294531</v>
       </c>
       <c r="D8">
-        <v>3.947348735587823</v>
+        <v>4.079671024470946</v>
       </c>
       <c r="E8">
-        <v>11.51260951617626</v>
+        <v>11.03655799778298</v>
       </c>
       <c r="F8">
-        <v>20.30724673972444</v>
+        <v>16.48061648199454</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>17.18114978252266</v>
+        <v>10.01069929078285</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.43664501186319</v>
+        <v>17.95123264245541</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.09337485398065</v>
+        <v>12.53881741997884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.89437944252291</v>
+        <v>23.7302371376199</v>
       </c>
       <c r="C9">
-        <v>10.42524318532946</v>
+        <v>17.50183238042195</v>
       </c>
       <c r="D9">
-        <v>4.083254698881213</v>
+        <v>4.443856458886512</v>
       </c>
       <c r="E9">
-        <v>11.70068904893029</v>
+        <v>12.45370239800856</v>
       </c>
       <c r="F9">
-        <v>20.34223137451643</v>
+        <v>17.96911730191709</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>16.86315111280813</v>
+        <v>9.381665171550987</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.24294947752669</v>
+        <v>20.68486527125507</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.94993617654534</v>
+        <v>13.08925119557745</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.94460345886195</v>
+        <v>25.76613886865185</v>
       </c>
       <c r="C10">
-        <v>11.19862334985471</v>
+        <v>18.94031517195348</v>
       </c>
       <c r="D10">
-        <v>4.17909443990309</v>
+        <v>4.693380315709715</v>
       </c>
       <c r="E10">
-        <v>11.86242023282504</v>
+        <v>13.69620519509079</v>
       </c>
       <c r="F10">
-        <v>20.40923989164066</v>
+        <v>19.1242078590463</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>16.6549334642763</v>
+        <v>9.022902510032555</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.82037789357164</v>
+        <v>22.51034452115406</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.87658233447673</v>
+        <v>13.59744549480839</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.3979629929915</v>
+        <v>26.64495874625538</v>
       </c>
       <c r="C11">
-        <v>11.53175679950032</v>
+        <v>19.56275588878123</v>
       </c>
       <c r="D11">
-        <v>4.221710528619367</v>
+        <v>4.80272855746864</v>
       </c>
       <c r="E11">
-        <v>11.94085970524855</v>
+        <v>14.27325215456982</v>
       </c>
       <c r="F11">
-        <v>20.44867126401433</v>
+        <v>19.66148826090223</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>16.56575881297943</v>
+        <v>8.887971901263676</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.07859846550229</v>
+        <v>23.30219271121677</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.85027171174593</v>
+        <v>13.85209332700051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.56608437222396</v>
+        <v>26.97100992615923</v>
       </c>
       <c r="C12">
-        <v>11.65519864166575</v>
+        <v>19.79389795914768</v>
       </c>
       <c r="D12">
-        <v>4.237697966628852</v>
+        <v>4.843521645009009</v>
       </c>
       <c r="E12">
-        <v>11.97123840520257</v>
+        <v>14.48948814909578</v>
       </c>
       <c r="F12">
-        <v>20.46488404677578</v>
+        <v>19.86653986921123</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>16.53279100374435</v>
+        <v>8.841501023854315</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.17564655711249</v>
+        <v>23.59660261513617</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.84133124336472</v>
+        <v>13.95194914608677</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.53003523569678</v>
+        <v>26.90108753619573</v>
       </c>
       <c r="C13">
-        <v>11.62873398901241</v>
+        <v>19.74431973369799</v>
       </c>
       <c r="D13">
-        <v>4.234261613931228</v>
+        <v>4.834763686798848</v>
       </c>
       <c r="E13">
-        <v>11.96466618142933</v>
+        <v>14.44301709744641</v>
       </c>
       <c r="F13">
-        <v>20.46133548112117</v>
+        <v>19.82230878391221</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>16.53985554396108</v>
+        <v>8.851294192609389</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.15477960181214</v>
+        <v>23.53343665634238</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.84321112683374</v>
+        <v>13.93029031978738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.41186594663051</v>
+        <v>26.67191781954515</v>
       </c>
       <c r="C14">
-        <v>11.54196682452734</v>
+        <v>19.58186332631768</v>
       </c>
       <c r="D14">
-        <v>4.22302888894238</v>
+        <v>4.806097030437203</v>
       </c>
       <c r="E14">
-        <v>11.94334559077719</v>
+        <v>14.29108693839816</v>
       </c>
       <c r="F14">
-        <v>20.44997946887235</v>
+        <v>19.67832651933703</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>16.56303046417862</v>
+        <v>8.884052633514941</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.08659790346302</v>
+        <v>23.32652251708004</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.84951563333662</v>
+        <v>13.86023960225377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.33901949575846</v>
+        <v>26.53066926718653</v>
       </c>
       <c r="C15">
-        <v>11.4884661357592</v>
+        <v>19.48176092553243</v>
       </c>
       <c r="D15">
-        <v>4.216128676032954</v>
+        <v>4.788457395837231</v>
       </c>
       <c r="E15">
-        <v>11.93037330717223</v>
+        <v>14.19773241993024</v>
       </c>
       <c r="F15">
-        <v>20.44319018936531</v>
+        <v>19.59033828887509</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>16.57733015036179</v>
+        <v>8.904737906389606</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.04473632765118</v>
+        <v>23.1990756041999</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.8535107440574</v>
+        <v>13.81777905043594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.91448010943389</v>
+        <v>25.70775912068762</v>
       </c>
       <c r="C16">
-        <v>11.17647434534289</v>
+        <v>18.89899689677624</v>
       </c>
       <c r="D16">
-        <v>4.176288827940787</v>
+        <v>4.686148938920549</v>
       </c>
       <c r="E16">
-        <v>11.85738991654568</v>
+        <v>13.6581678988022</v>
       </c>
       <c r="F16">
-        <v>20.406842587432</v>
+        <v>19.08932368554775</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>16.66087309395168</v>
+        <v>9.032335938406282</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.80340475758274</v>
+        <v>22.45782757933042</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.87844451041093</v>
+        <v>13.58128056719808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6477533168446</v>
+        <v>25.19085419643767</v>
       </c>
       <c r="C17">
-        <v>10.98027504190382</v>
+        <v>18.53332876835958</v>
       </c>
       <c r="D17">
-        <v>4.15159023928967</v>
+        <v>4.622307458773208</v>
       </c>
       <c r="E17">
-        <v>11.81384674044101</v>
+        <v>13.32296866521309</v>
       </c>
       <c r="F17">
-        <v>20.38683313349658</v>
+        <v>18.78491316240774</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>16.71354643489207</v>
+        <v>9.118234054702606</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.6541458291898</v>
+        <v>21.993285003483</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.89555415004017</v>
+        <v>13.44224762814055</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.49204526988548</v>
+        <v>24.88908544348351</v>
       </c>
       <c r="C18">
-        <v>10.86566894836808</v>
+        <v>18.31999807018402</v>
       </c>
       <c r="D18">
-        <v>4.137292365557053</v>
+        <v>4.585196580792863</v>
       </c>
       <c r="E18">
-        <v>11.78926157425524</v>
+        <v>13.12859248916443</v>
       </c>
       <c r="F18">
-        <v>20.37616703969143</v>
+        <v>18.61094204284556</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>16.74436441596642</v>
+        <v>9.170264435675881</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.56788195363555</v>
+        <v>21.72245515822164</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.90605910556143</v>
+        <v>13.36448628121207</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.43893289096702</v>
+        <v>24.78614407674906</v>
       </c>
       <c r="C19">
-        <v>10.82656422903293</v>
+        <v>18.24725060876064</v>
       </c>
       <c r="D19">
-        <v>4.132435853305043</v>
+        <v>4.572564883796345</v>
       </c>
       <c r="E19">
-        <v>11.78101713145296</v>
+        <v>13.06250566828819</v>
       </c>
       <c r="F19">
-        <v>20.37270057656984</v>
+        <v>18.55223400182556</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>16.7548883520915</v>
+        <v>9.188315614686326</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.53860633787325</v>
+        <v>21.63012923825059</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.90972968774707</v>
+        <v>13.33853486318541</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.6763846301379</v>
+        <v>25.24634061790056</v>
       </c>
       <c r="C20">
-        <v>11.00134286149211</v>
+        <v>18.57256590998188</v>
       </c>
       <c r="D20">
-        <v>4.154229025037043</v>
+        <v>4.629144084012818</v>
       </c>
       <c r="E20">
-        <v>11.81843457838212</v>
+        <v>13.35881376167799</v>
       </c>
       <c r="F20">
-        <v>20.38887598053907</v>
+        <v>18.8172033408407</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>16.70788525317072</v>
+        <v>9.108814605566272</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.67007825476693</v>
+        <v>22.04311209999508</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.89366402545307</v>
+        <v>13.45681912413961</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.44667197253517</v>
+        <v>26.73941284018419</v>
       </c>
       <c r="C21">
-        <v>11.56752610205544</v>
+        <v>19.62970425890485</v>
       </c>
       <c r="D21">
-        <v>4.226332363879006</v>
+        <v>4.814533918560753</v>
       </c>
       <c r="E21">
-        <v>11.94958984030701</v>
+        <v>14.33577330791637</v>
       </c>
       <c r="F21">
-        <v>20.45328029826675</v>
+        <v>19.72057501579508</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>16.55620166963541</v>
+        <v>8.874300448061016</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.1066451682839</v>
+        <v>23.38744515554813</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.84763602965576</v>
+        <v>13.88072185264407</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.92935687388671</v>
+        <v>27.67597962075958</v>
       </c>
       <c r="C22">
-        <v>11.92176558412576</v>
+        <v>20.2940309007605</v>
       </c>
       <c r="D22">
-        <v>4.272575763138371</v>
+        <v>4.932108649078972</v>
       </c>
       <c r="E22">
-        <v>12.03923133753449</v>
+        <v>14.96105869809669</v>
       </c>
       <c r="F22">
-        <v>20.50283434154342</v>
+        <v>20.32024912436113</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>16.46173647047235</v>
+        <v>8.748284599299801</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.38764722720541</v>
+        <v>24.23435683102272</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.82351885165478</v>
+        <v>14.17775461698735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.67365003035576</v>
+        <v>27.1796828682334</v>
       </c>
       <c r="C23">
-        <v>11.73415234308457</v>
+        <v>19.94188657227443</v>
       </c>
       <c r="D23">
-        <v>4.247978253242211</v>
+        <v>4.869689639847211</v>
       </c>
       <c r="E23">
-        <v>11.9910375145202</v>
+        <v>14.62849623436092</v>
       </c>
       <c r="F23">
-        <v>20.47570619317555</v>
+        <v>19.99937147581142</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>16.51172595601757</v>
+        <v>8.812849076859417</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.23809566929803</v>
+        <v>23.78520737338341</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.83584245701247</v>
+        <v>14.0173793034714</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.66344777067217</v>
+        <v>25.22126951852533</v>
       </c>
       <c r="C24">
-        <v>10.99182373166203</v>
+        <v>18.55483646617679</v>
       </c>
       <c r="D24">
-        <v>4.153036335554767</v>
+        <v>4.626054513926723</v>
       </c>
       <c r="E24">
-        <v>11.81635901832843</v>
+        <v>13.34261339053177</v>
       </c>
       <c r="F24">
-        <v>20.38794979985088</v>
+        <v>18.80260170801011</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>16.71044300595823</v>
+        <v>9.113064937193869</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.66287660872981</v>
+        <v>22.02059698288341</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.89451646932024</v>
+        <v>13.45022459404561</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.4863865831932</v>
+        <v>22.93814918451886</v>
       </c>
       <c r="C25">
-        <v>10.12405879918569</v>
+        <v>16.94365099909853</v>
       </c>
       <c r="D25">
-        <v>4.04715309641329</v>
+        <v>4.348405611318719</v>
       </c>
       <c r="E25">
-        <v>11.6455957393317</v>
+        <v>12.06981148120319</v>
       </c>
       <c r="F25">
-        <v>20.32551366280238</v>
+        <v>17.55505430894893</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>16.94472447365892</v>
+        <v>9.535466320973326</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.02701620498741</v>
+        <v>19.97780554077212</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.98315233507105</v>
+        <v>12.92248679355981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10810942818466</v>
+        <v>13.53659497393615</v>
       </c>
       <c r="C2">
-        <v>15.65774176947656</v>
+        <v>9.520896212407019</v>
       </c>
       <c r="D2">
-        <v>4.131963038921993</v>
+        <v>5.109774906824674</v>
       </c>
       <c r="E2">
-        <v>11.23181791072826</v>
+        <v>28.37938472192638</v>
       </c>
       <c r="F2">
-        <v>16.67851513859698</v>
+        <v>19.11912009270129</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.586184176898312</v>
       </c>
       <c r="I2">
-        <v>9.913673511658477</v>
+        <v>2.540566061129791</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.34337422891745</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.35043457761503</v>
+        <v>12.67619549995648</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.6033078678254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.61311524076178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77417284293665</v>
+        <v>12.69780508495501</v>
       </c>
       <c r="C3">
-        <v>14.72423588421722</v>
+        <v>9.014776146300877</v>
       </c>
       <c r="D3">
-        <v>3.978301520293531</v>
+        <v>4.942495031740161</v>
       </c>
       <c r="E3">
-        <v>10.66664478301427</v>
+        <v>26.51994233748692</v>
       </c>
       <c r="F3">
-        <v>16.11351935403329</v>
+        <v>18.74439438397036</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.355037005797992</v>
       </c>
       <c r="I3">
-        <v>10.20463819176843</v>
+        <v>2.69512232287264</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.41874089309672</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.16929098596147</v>
+        <v>11.9812483094655</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.42822451093714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.51920479798764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.90879373688592</v>
+        <v>12.1521113898019</v>
       </c>
       <c r="C4">
-        <v>14.12066116200012</v>
+        <v>8.692877985966915</v>
       </c>
       <c r="D4">
-        <v>3.880728701633184</v>
+        <v>4.836353539218</v>
       </c>
       <c r="E4">
-        <v>10.32198663829288</v>
+        <v>25.3124130376491</v>
       </c>
       <c r="F4">
-        <v>15.78192271702397</v>
+        <v>18.51854033008429</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.208086140342055</v>
       </c>
       <c r="I4">
-        <v>10.39837786724408</v>
+        <v>2.794120618503015</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.46859052300025</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.40513103286959</v>
+        <v>11.53352299113046</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.3401660267055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.46671052624375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54449563470226</v>
+        <v>11.91962485950076</v>
       </c>
       <c r="C5">
-        <v>13.86710942693009</v>
+        <v>8.568236754774556</v>
       </c>
       <c r="D5">
-        <v>3.840194381623736</v>
+        <v>4.793893511521444</v>
       </c>
       <c r="E5">
-        <v>10.18231252723444</v>
+        <v>24.80354789426212</v>
       </c>
       <c r="F5">
-        <v>15.65079046729627</v>
+        <v>18.41787839115343</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.14677695337553</v>
       </c>
       <c r="I5">
-        <v>10.48086097446049</v>
+        <v>2.838506237136599</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.48311409768154</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.08390733206479</v>
+        <v>11.3476653418328</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.30901590940785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.43938097324944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48330108895966</v>
+        <v>11.87759610184079</v>
       </c>
       <c r="C6">
-        <v>13.82455096157768</v>
+        <v>8.558734074441446</v>
       </c>
       <c r="D6">
-        <v>3.833418236483455</v>
+        <v>4.788789542735052</v>
       </c>
       <c r="E6">
-        <v>10.15917251417764</v>
+        <v>24.71781386995883</v>
       </c>
       <c r="F6">
-        <v>15.62926142215844</v>
+        <v>18.38930276831366</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.136345569657021</v>
       </c>
       <c r="I6">
-        <v>10.49476359242902</v>
+        <v>2.849811359687778</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.47745162610304</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.02997449690727</v>
+        <v>11.31868894172932</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.30412445930783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.42611726314758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.90392783498185</v>
+        <v>12.14110277393375</v>
       </c>
       <c r="C7">
-        <v>14.11727231887593</v>
+        <v>8.721668087859538</v>
       </c>
       <c r="D7">
-        <v>3.880185115874297</v>
+        <v>4.841200997920926</v>
       </c>
       <c r="E7">
-        <v>10.320099537953</v>
+        <v>25.30499291308129</v>
       </c>
       <c r="F7">
-        <v>15.78013785799946</v>
+        <v>18.48482273250765</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.206800644823054</v>
       </c>
       <c r="I7">
-        <v>10.39947628051669</v>
+        <v>2.804976594994572</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.44659749739718</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.40083869961966</v>
+        <v>11.53693547499821</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.33972697618032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.44237833661256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65778108203385</v>
+        <v>13.2440658619565</v>
       </c>
       <c r="C8">
-        <v>15.34220340294531</v>
+        <v>9.38665405455068</v>
       </c>
       <c r="D8">
-        <v>4.079671024470946</v>
+        <v>5.059828755622138</v>
       </c>
       <c r="E8">
-        <v>11.03655799778298</v>
+        <v>27.75111374043866</v>
       </c>
       <c r="F8">
-        <v>16.48061648199454</v>
+        <v>18.94740399185858</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.506938228564556</v>
       </c>
       <c r="I8">
-        <v>10.01069929078285</v>
+        <v>2.606276034840926</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.33931955065841</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.95123264245541</v>
+        <v>12.44835245897057</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.53881741997884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.54834530919431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.7302371376199</v>
+        <v>15.17586043916836</v>
       </c>
       <c r="C9">
-        <v>17.50183238042195</v>
+        <v>10.55038268495882</v>
       </c>
       <c r="D9">
-        <v>4.443856458886512</v>
+        <v>5.450892860213444</v>
       </c>
       <c r="E9">
-        <v>12.45370239800856</v>
+        <v>32.02921226671718</v>
       </c>
       <c r="F9">
-        <v>17.96911730191709</v>
+        <v>19.94096944565373</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>3.057331785577126</v>
       </c>
       <c r="I9">
-        <v>9.381665171550987</v>
+        <v>2.716869295169196</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.19864490433348</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.68486527125507</v>
+        <v>14.0562986608656</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.08925119557745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.84103642183768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76613886865185</v>
+        <v>16.44566653619826</v>
       </c>
       <c r="C10">
-        <v>18.94031517195348</v>
+        <v>11.33147778001477</v>
       </c>
       <c r="D10">
-        <v>4.693380315709715</v>
+        <v>5.7506218390287</v>
       </c>
       <c r="E10">
-        <v>13.69620519509079</v>
+        <v>33.98111853112311</v>
       </c>
       <c r="F10">
-        <v>19.1242078590463</v>
+        <v>20.52526918698835</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>3.40467238360571</v>
       </c>
       <c r="I10">
-        <v>9.022902510032555</v>
+        <v>2.964224743560832</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.02944071270533</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.51034452115406</v>
+        <v>15.1247596173638</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.59744549480839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.96162293488145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.64495874625538</v>
+        <v>17.00189629176751</v>
       </c>
       <c r="C11">
-        <v>19.56275588878123</v>
+        <v>11.46458752932024</v>
       </c>
       <c r="D11">
-        <v>4.80272855746864</v>
+        <v>6.141289291399299</v>
       </c>
       <c r="E11">
-        <v>14.27325215456982</v>
+        <v>27.3295452000742</v>
       </c>
       <c r="F11">
-        <v>19.66148826090223</v>
+        <v>19.48986747660981</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.859557691807232</v>
       </c>
       <c r="I11">
-        <v>8.887971901263676</v>
+        <v>3.02764392216888</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.28120095675553</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.30219271121677</v>
+        <v>15.51851914744224</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.85209332700051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.02901499164374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.97100992615923</v>
+        <v>17.22589055213186</v>
       </c>
       <c r="C12">
-        <v>19.79389795914768</v>
+        <v>11.3844020503923</v>
       </c>
       <c r="D12">
-        <v>4.843521645009009</v>
+        <v>6.409519897253095</v>
       </c>
       <c r="E12">
-        <v>14.48948814909578</v>
+        <v>21.2991201001701</v>
       </c>
       <c r="F12">
-        <v>19.86653986921123</v>
+        <v>18.52302118185755</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.800080258191183</v>
       </c>
       <c r="I12">
-        <v>8.841501023854315</v>
+        <v>3.031372959119049</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.73770786170902</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.59660261513617</v>
+        <v>15.62939216181025</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.95194914608677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.25169435901127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90108753619573</v>
+        <v>17.20600079106932</v>
       </c>
       <c r="C13">
-        <v>19.74431973369799</v>
+        <v>11.17126143445051</v>
       </c>
       <c r="D13">
-        <v>4.834763686798848</v>
+        <v>6.610359270880537</v>
       </c>
       <c r="E13">
-        <v>14.44301709744641</v>
+        <v>15.2160988549911</v>
       </c>
       <c r="F13">
-        <v>19.82230878391221</v>
+        <v>17.4906344314824</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.932122989353465</v>
       </c>
       <c r="I13">
-        <v>8.851294192609389</v>
+        <v>2.993974800349755</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.28996480521184</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.53343665634238</v>
+        <v>15.5400773709245</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.93029031978738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.51096478523847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.67191781954515</v>
+        <v>17.08010661873312</v>
       </c>
       <c r="C14">
-        <v>19.58186332631768</v>
+        <v>10.96796761969796</v>
       </c>
       <c r="D14">
-        <v>4.806097030437203</v>
+        <v>6.723916814652039</v>
       </c>
       <c r="E14">
-        <v>14.29108693839816</v>
+        <v>10.91467643721679</v>
       </c>
       <c r="F14">
-        <v>19.67832651933703</v>
+        <v>16.7271542427531</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.793100772735134</v>
       </c>
       <c r="I14">
-        <v>8.884052633514941</v>
+        <v>2.951018533023369</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.02352382881825</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.32652251708004</v>
+        <v>15.38793382187923</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.86023960225377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.00915701856778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.53066926718653</v>
+        <v>16.993986343355</v>
       </c>
       <c r="C15">
-        <v>19.48176092553243</v>
+        <v>10.89823769266825</v>
       </c>
       <c r="D15">
-        <v>4.788457395837231</v>
+        <v>6.738759809543852</v>
       </c>
       <c r="E15">
-        <v>14.19773241993024</v>
+        <v>9.854276263198722</v>
       </c>
       <c r="F15">
-        <v>19.59033828887509</v>
+        <v>16.51827320830582</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.991036307583737</v>
       </c>
       <c r="I15">
-        <v>8.904737906389606</v>
+        <v>2.932509964017594</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.9717289515043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.1990756041999</v>
+        <v>15.30891790364809</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.81777905043594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.88858839892903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70775912068762</v>
+        <v>16.47618261550197</v>
       </c>
       <c r="C16">
-        <v>18.89899689677624</v>
+        <v>10.62265655480779</v>
       </c>
       <c r="D16">
-        <v>4.686148938920549</v>
+        <v>6.58377322097679</v>
       </c>
       <c r="E16">
-        <v>13.6581678988022</v>
+        <v>9.755543210749298</v>
       </c>
       <c r="F16">
-        <v>19.08932368554775</v>
+        <v>16.42761592785847</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.719539224515279</v>
       </c>
       <c r="I16">
-        <v>9.032335938406282</v>
+        <v>2.837981701046392</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.13083419195193</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.45782757933042</v>
+        <v>14.88688832559917</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.58128056719808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.97241992609317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19085419643767</v>
+        <v>16.1395224583003</v>
       </c>
       <c r="C17">
-        <v>18.53332876835958</v>
+        <v>10.52073478119222</v>
       </c>
       <c r="D17">
-        <v>4.622307458773208</v>
+        <v>6.400495734836883</v>
       </c>
       <c r="E17">
-        <v>13.32296866521309</v>
+        <v>12.05488234776637</v>
       </c>
       <c r="F17">
-        <v>18.78491316240774</v>
+        <v>16.771384207295</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.003046483829838</v>
       </c>
       <c r="I17">
-        <v>9.118234054702606</v>
+        <v>2.787871029559733</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.38814600933961</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.993285003483</v>
+        <v>14.64095389642723</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.44224762814055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.30020606634364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88908544348351</v>
+        <v>15.93470078354235</v>
       </c>
       <c r="C18">
-        <v>18.31999807018402</v>
+        <v>10.54200312875231</v>
       </c>
       <c r="D18">
-        <v>4.585196580792863</v>
+        <v>6.171004926418258</v>
       </c>
       <c r="E18">
-        <v>13.12859248916443</v>
+        <v>16.83817279751049</v>
       </c>
       <c r="F18">
-        <v>18.61094204284556</v>
+        <v>17.54811228726116</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.891551612869385</v>
       </c>
       <c r="I18">
-        <v>9.170264435675881</v>
+        <v>2.769457055013492</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.78851558760795</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.72245515822164</v>
+        <v>14.52191141772759</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.36448628121207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.89870434162081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.78614407674906</v>
+        <v>15.84444220034827</v>
       </c>
       <c r="C19">
-        <v>18.24725060876064</v>
+        <v>10.71381117068494</v>
       </c>
       <c r="D19">
-        <v>4.572564883796345</v>
+        <v>5.938100354467486</v>
       </c>
       <c r="E19">
-        <v>13.06250566828819</v>
+        <v>23.24803064441848</v>
       </c>
       <c r="F19">
-        <v>18.55223400182556</v>
+        <v>18.56092294280471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.774806454898379</v>
       </c>
       <c r="I19">
-        <v>9.188315614686326</v>
+        <v>2.791632910387687</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.26744654960584</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.63012923825059</v>
+        <v>14.5280545013178</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.33853486318541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.6478966955307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.24634061790056</v>
+        <v>16.10314635917106</v>
       </c>
       <c r="C20">
-        <v>18.57256590998188</v>
+        <v>11.2061791071725</v>
       </c>
       <c r="D20">
-        <v>4.629144084012818</v>
+        <v>5.690079248738081</v>
       </c>
       <c r="E20">
-        <v>13.35881376167799</v>
+        <v>33.43943247434961</v>
       </c>
       <c r="F20">
-        <v>18.8172033408407</v>
+        <v>20.27356176854275</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>3.311120725253534</v>
       </c>
       <c r="I20">
-        <v>9.108814605566272</v>
+        <v>2.910043887117543</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.00118215048685</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04311209999508</v>
+        <v>14.86606709718752</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.45681912413961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.85242914300192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73941284018419</v>
+        <v>17.03269075443195</v>
       </c>
       <c r="C21">
-        <v>19.62970425890485</v>
+        <v>11.81286933133526</v>
       </c>
       <c r="D21">
-        <v>4.814533918560753</v>
+        <v>5.866156535330732</v>
       </c>
       <c r="E21">
-        <v>14.33577330791637</v>
+        <v>36.21014757985173</v>
       </c>
       <c r="F21">
-        <v>19.72057501579508</v>
+        <v>20.97387234777918</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.625751786033065</v>
       </c>
       <c r="I21">
-        <v>8.874300448061016</v>
+        <v>3.104391476307421</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.0109092360568</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.38744515554813</v>
+        <v>15.6625274668884</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.88072185264407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.14348093228687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.67597962075958</v>
+        <v>17.6218207214602</v>
       </c>
       <c r="C22">
-        <v>20.2940309007605</v>
+        <v>12.15414267166699</v>
       </c>
       <c r="D22">
-        <v>4.932108649078972</v>
+        <v>5.986106023840054</v>
       </c>
       <c r="E22">
-        <v>14.96105869809669</v>
+        <v>37.51118250625613</v>
       </c>
       <c r="F22">
-        <v>20.32024912436113</v>
+        <v>21.39400407563169</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.80988521461938</v>
       </c>
       <c r="I22">
-        <v>8.748284599299801</v>
+        <v>3.22262439183263</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.01172159701128</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.23435683102272</v>
+        <v>16.15291525572168</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.17775461698735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.31112372581422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1796828682334</v>
+        <v>17.31666175736038</v>
       </c>
       <c r="C23">
-        <v>19.94188657227443</v>
+        <v>11.94524307318181</v>
       </c>
       <c r="D23">
-        <v>4.869689639847211</v>
+        <v>5.91674642067083</v>
       </c>
       <c r="E23">
-        <v>14.62849623436092</v>
+        <v>36.82240381127451</v>
       </c>
       <c r="F23">
-        <v>19.99937147581142</v>
+        <v>21.2027252158108</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.712361854299669</v>
       </c>
       <c r="I23">
-        <v>8.812849076859417</v>
+        <v>3.155836614213882</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.03659333538547</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.78520737338341</v>
+        <v>15.88757145624188</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.0173793034714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.24735380018386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22126951852533</v>
+        <v>16.0969529567394</v>
       </c>
       <c r="C24">
-        <v>18.55483646617679</v>
+        <v>11.17481590388775</v>
       </c>
       <c r="D24">
-        <v>4.626054513926723</v>
+        <v>5.655474936846475</v>
       </c>
       <c r="E24">
-        <v>13.34261339053177</v>
+        <v>34.10163320994918</v>
       </c>
       <c r="F24">
-        <v>18.80260170801011</v>
+        <v>20.43105756405083</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>3.335085117115529</v>
       </c>
       <c r="I24">
-        <v>9.113064937193869</v>
+        <v>2.905173878297979</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.10056202108981</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02059698288341</v>
+        <v>14.85143500234853</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.45022459404561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.97727992990921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93814918451886</v>
+        <v>14.66737272029383</v>
       </c>
       <c r="C25">
-        <v>16.94365099909853</v>
+        <v>10.29326571483709</v>
       </c>
       <c r="D25">
-        <v>4.348405611318719</v>
+        <v>5.357503715398123</v>
       </c>
       <c r="E25">
-        <v>12.06981148120319</v>
+        <v>30.92615080880952</v>
       </c>
       <c r="F25">
-        <v>17.55505430894893</v>
+        <v>19.61472488177872</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.911738647122196</v>
       </c>
       <c r="I25">
-        <v>9.535466320973326</v>
+        <v>2.627649781272846</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.19343668808855</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.97780554077212</v>
+        <v>13.64909192206023</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.92248679355981</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.71518141469546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.53659497393615</v>
+        <v>13.49191608241193</v>
       </c>
       <c r="C2">
-        <v>9.520896212407019</v>
+        <v>9.842200908762329</v>
       </c>
       <c r="D2">
-        <v>5.109774906824674</v>
+        <v>5.158855179407417</v>
       </c>
       <c r="E2">
-        <v>28.37938472192638</v>
+        <v>28.4240448929596</v>
       </c>
       <c r="F2">
-        <v>19.11912009270129</v>
+        <v>18.44347517569713</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.586184176898312</v>
+        <v>2.619662842598665</v>
       </c>
       <c r="I2">
-        <v>2.540566061129791</v>
+        <v>2.510414098255023</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.34337422891745</v>
+        <v>13.71879451070119</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.8369272478081</v>
       </c>
       <c r="M2">
-        <v>12.67619549995648</v>
+        <v>8.466341506971633</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.79192462284648</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.61311524076178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.05566920807515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.69780508495501</v>
+        <v>12.68346376895225</v>
       </c>
       <c r="C3">
-        <v>9.014776146300877</v>
+        <v>9.228572216010301</v>
       </c>
       <c r="D3">
-        <v>4.942495031740161</v>
+        <v>4.968108037134416</v>
       </c>
       <c r="E3">
-        <v>26.51994233748692</v>
+        <v>26.57186593311881</v>
       </c>
       <c r="F3">
-        <v>18.74439438397036</v>
+        <v>18.14467423373203</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.355037005797992</v>
+        <v>2.393600571202327</v>
       </c>
       <c r="I3">
-        <v>2.69512232287264</v>
+        <v>2.576558309046875</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>14.41874089309672</v>
+        <v>13.83872814585204</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.00097903787574</v>
       </c>
       <c r="M3">
-        <v>11.9812483094655</v>
+        <v>8.50088061153415</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.08279850471216</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.51920479798764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.01844102050905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.1521113898019</v>
+        <v>12.15789168269079</v>
       </c>
       <c r="C4">
-        <v>8.692877985966915</v>
+        <v>8.836621272271216</v>
       </c>
       <c r="D4">
-        <v>4.836353539218</v>
+        <v>4.847135586340123</v>
       </c>
       <c r="E4">
-        <v>25.3124130376491</v>
+        <v>25.36910341771589</v>
       </c>
       <c r="F4">
-        <v>18.51854033008429</v>
+        <v>17.965172515641</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.208086140342055</v>
+        <v>2.249846301704957</v>
       </c>
       <c r="I4">
-        <v>2.794120618503015</v>
+        <v>2.665377091321024</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>14.46859052300025</v>
+        <v>13.91473351543801</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.10341514377256</v>
       </c>
       <c r="M4">
-        <v>11.53352299113046</v>
+        <v>8.541372448644511</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.62596084733557</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.46671052624375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.99996100008292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.91962485950076</v>
+        <v>11.93409645286213</v>
       </c>
       <c r="C5">
-        <v>8.568236754774556</v>
+        <v>8.682595217367759</v>
       </c>
       <c r="D5">
-        <v>4.793893511521444</v>
+        <v>4.798555861769013</v>
       </c>
       <c r="E5">
-        <v>24.80354789426212</v>
+        <v>24.86227256364034</v>
       </c>
       <c r="F5">
-        <v>18.41787839115343</v>
+        <v>17.88371764697148</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.14677695337553</v>
+        <v>2.189864241190404</v>
       </c>
       <c r="I5">
-        <v>2.838506237136599</v>
+        <v>2.706139102067774</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>14.48311409768154</v>
+        <v>13.94015391116831</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.13990708770102</v>
       </c>
       <c r="M5">
-        <v>11.3476653418328</v>
+        <v>8.559181382702233</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.43623510373329</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.43938097324944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.98666729206461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.87759610184079</v>
+        <v>11.89365752164248</v>
       </c>
       <c r="C6">
-        <v>8.558734074441446</v>
+        <v>8.668354297154959</v>
       </c>
       <c r="D6">
-        <v>4.788789542735052</v>
+        <v>4.792452116493248</v>
       </c>
       <c r="E6">
-        <v>24.71781386995883</v>
+        <v>24.77688597720086</v>
       </c>
       <c r="F6">
-        <v>18.38930276831366</v>
+        <v>17.85885509626317</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.136345569657021</v>
+        <v>2.179660233499212</v>
       </c>
       <c r="I6">
-        <v>2.849811359687778</v>
+        <v>2.717562243709367</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>14.47745162610304</v>
+        <v>13.93693624547413</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.13905882982183</v>
       </c>
       <c r="M6">
-        <v>11.31868894172932</v>
+        <v>8.558196371045083</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.40653398388206</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.42611726314758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.97619699054595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14110277393375</v>
+        <v>12.14732381413432</v>
       </c>
       <c r="C7">
-        <v>8.721668087859538</v>
+        <v>8.865524751610584</v>
       </c>
       <c r="D7">
-        <v>4.841200997920926</v>
+        <v>4.851961825134774</v>
       </c>
       <c r="E7">
-        <v>25.30499291308129</v>
+        <v>25.36172233315537</v>
       </c>
       <c r="F7">
-        <v>18.48482273250765</v>
+        <v>17.93318246633032</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.206800644823054</v>
+        <v>2.248594768351307</v>
       </c>
       <c r="I7">
-        <v>2.804976594994572</v>
+        <v>2.678079803857284</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>14.44659749739718</v>
+        <v>13.89474542721023</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.08550036990486</v>
       </c>
       <c r="M7">
-        <v>11.53693547499821</v>
+        <v>8.52946332905792</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.62911586445457</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.44237833661256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.97714753158373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2440658619565</v>
+        <v>13.20993933114517</v>
       </c>
       <c r="C8">
-        <v>9.38665405455068</v>
+        <v>9.672202705446097</v>
       </c>
       <c r="D8">
-        <v>5.059828755622138</v>
+        <v>5.10099247068314</v>
       </c>
       <c r="E8">
-        <v>27.75111374043866</v>
+        <v>27.79824219137174</v>
       </c>
       <c r="F8">
-        <v>18.94740399185858</v>
+        <v>18.29993106241626</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.506938228564556</v>
+        <v>2.542178365451096</v>
       </c>
       <c r="I8">
-        <v>2.606276034840926</v>
+        <v>2.500960382193369</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.33931955065841</v>
+        <v>13.73310759923083</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.87102171747253</v>
       </c>
       <c r="M8">
-        <v>12.44835245897057</v>
+        <v>8.455821228278895</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.55903202247685</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.54834530919431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.01244600391754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.17586043916836</v>
+        <v>15.07336235353106</v>
       </c>
       <c r="C9">
-        <v>10.55038268495882</v>
+        <v>11.08095414542321</v>
       </c>
       <c r="D9">
-        <v>5.450892860213444</v>
+        <v>5.547760875995204</v>
       </c>
       <c r="E9">
-        <v>32.02921226671718</v>
+        <v>32.05948918474197</v>
       </c>
       <c r="F9">
-        <v>19.94096944565373</v>
+        <v>19.10289743164311</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.057331785577126</v>
+        <v>3.080227171117278</v>
       </c>
       <c r="I9">
-        <v>2.716869295169196</v>
+        <v>2.789587219750996</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.19864490433348</v>
+        <v>13.4719176749322</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.4925230918136</v>
       </c>
       <c r="M9">
-        <v>14.0562986608656</v>
+        <v>8.493275022387229</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.19997825759128</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.84103642183768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.15849036758438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.44566653619826</v>
+        <v>16.30214832123215</v>
       </c>
       <c r="C10">
-        <v>11.33147778001477</v>
+        <v>12.00996155377912</v>
       </c>
       <c r="D10">
-        <v>5.7506218390287</v>
+        <v>5.884285442866002</v>
       </c>
       <c r="E10">
-        <v>33.98111853112311</v>
+        <v>34.00011081410481</v>
       </c>
       <c r="F10">
-        <v>20.52526918698835</v>
+        <v>19.56545165553201</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.40467238360571</v>
+        <v>3.418995555506691</v>
       </c>
       <c r="I10">
-        <v>2.964224743560832</v>
+        <v>3.012570479688934</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.02944071270533</v>
+        <v>13.22411970250296</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.1739903033918</v>
       </c>
       <c r="M10">
-        <v>15.1247596173638</v>
+        <v>8.556200396451185</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.28782958967776</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.96162293488145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.1831433493802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00189629176751</v>
+        <v>16.86611603629141</v>
       </c>
       <c r="C11">
-        <v>11.46458752932024</v>
+        <v>12.10048489843413</v>
       </c>
       <c r="D11">
-        <v>6.141289291399299</v>
+        <v>6.277593311883042</v>
       </c>
       <c r="E11">
-        <v>27.3295452000742</v>
+        <v>27.34668758875405</v>
       </c>
       <c r="F11">
-        <v>19.48986747660981</v>
+        <v>18.60512941615318</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.859557691807232</v>
+        <v>3.870187373794415</v>
       </c>
       <c r="I11">
-        <v>3.02764392216888</v>
+        <v>3.072470112705727</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>13.28120095675553</v>
+        <v>12.57652964029256</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.68329715931593</v>
       </c>
       <c r="M11">
-        <v>15.51851914744224</v>
+        <v>8.112895946090378</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.67078476393244</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.02901499164374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.32362054249532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22589055213186</v>
+        <v>17.10444488481638</v>
       </c>
       <c r="C12">
-        <v>11.3844020503923</v>
+        <v>11.95389863282063</v>
       </c>
       <c r="D12">
-        <v>6.409519897253095</v>
+        <v>6.538362294854541</v>
       </c>
       <c r="E12">
-        <v>21.2991201001701</v>
+        <v>21.31741385087963</v>
       </c>
       <c r="F12">
-        <v>18.52302118185755</v>
+        <v>17.72554557512585</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.800080258191183</v>
+        <v>4.808305293052628</v>
       </c>
       <c r="I12">
-        <v>3.031372959119049</v>
+        <v>3.075947117985377</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>12.73770786170902</v>
+        <v>12.12976607014865</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.38371463427556</v>
       </c>
       <c r="M12">
-        <v>15.62939216181025</v>
+        <v>7.745406538044722</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.76840062924028</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.25169435901127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.62631591999326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.20600079106932</v>
+        <v>17.10546939476436</v>
       </c>
       <c r="C13">
-        <v>11.17126143445051</v>
+        <v>11.65035159529048</v>
       </c>
       <c r="D13">
-        <v>6.610359270880537</v>
+        <v>6.724062593487297</v>
       </c>
       <c r="E13">
-        <v>15.2160988549911</v>
+        <v>15.23928535768019</v>
       </c>
       <c r="F13">
-        <v>17.4906344314824</v>
+        <v>16.798669653557</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.932122989353465</v>
+        <v>5.939184906412029</v>
       </c>
       <c r="I13">
-        <v>2.993974800349755</v>
+        <v>3.042289522781514</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>12.28996480521184</v>
+        <v>11.7825020166518</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.17726797469925</v>
       </c>
       <c r="M13">
-        <v>15.5400773709245</v>
+        <v>7.398578498292934</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.66257801711597</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.51096478523847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.97784747726391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.08010661873312</v>
+        <v>16.99747078671285</v>
       </c>
       <c r="C14">
-        <v>10.96796761969796</v>
+        <v>11.37177949610291</v>
       </c>
       <c r="D14">
-        <v>6.723916814652039</v>
+        <v>6.823363557435594</v>
       </c>
       <c r="E14">
-        <v>10.91467643721679</v>
+        <v>10.94541529033675</v>
       </c>
       <c r="F14">
-        <v>16.7271542427531</v>
+        <v>16.11792050002128</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.793100772735134</v>
+        <v>6.799728352028721</v>
       </c>
       <c r="I14">
-        <v>2.951018533023369</v>
+        <v>3.003993750399673</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.02352382881825</v>
+        <v>11.58585338852015</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.06927661516938</v>
       </c>
       <c r="M14">
-        <v>15.38793382187923</v>
+        <v>7.172663336063939</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.49711572748926</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.00915701856778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.54553410610645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.993986343355</v>
+        <v>16.91730304097679</v>
       </c>
       <c r="C15">
-        <v>10.89823769266825</v>
+        <v>11.27818089464438</v>
       </c>
       <c r="D15">
-        <v>6.738759809543852</v>
+        <v>6.833278558428381</v>
       </c>
       <c r="E15">
-        <v>9.854276263198722</v>
+        <v>9.888448503459278</v>
       </c>
       <c r="F15">
-        <v>16.51827320830582</v>
+        <v>15.93351142439495</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.991036307583737</v>
+        <v>6.997687320742468</v>
       </c>
       <c r="I15">
-        <v>2.932509964017594</v>
+        <v>2.988032052723116</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>11.9717289515043</v>
+        <v>11.55215518646383</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.05364405226531</v>
       </c>
       <c r="M15">
-        <v>15.30891790364809</v>
+        <v>7.121003171242056</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.41408685005307</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.88858839892903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.44464806817626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.47618261550197</v>
+        <v>16.41339338492134</v>
       </c>
       <c r="C16">
-        <v>10.62265655480779</v>
+        <v>10.95355788790384</v>
       </c>
       <c r="D16">
-        <v>6.58377322097679</v>
+        <v>6.666183859111402</v>
       </c>
       <c r="E16">
-        <v>9.755543210749298</v>
+        <v>9.79668768009093</v>
       </c>
       <c r="F16">
-        <v>16.42761592785847</v>
+        <v>15.8767585800922</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.719539224515279</v>
+        <v>6.727445128911869</v>
       </c>
       <c r="I16">
-        <v>2.837981701046392</v>
+        <v>2.903629838752833</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.13083419195193</v>
+        <v>11.71874113660154</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.17678522296157</v>
       </c>
       <c r="M16">
-        <v>14.88688832559917</v>
+        <v>7.188136933285466</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.98619180075322</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.97241992609317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.55021317644212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.1395224583003</v>
+        <v>16.0777207135885</v>
       </c>
       <c r="C17">
-        <v>10.52073478119222</v>
+        <v>10.85526159629052</v>
       </c>
       <c r="D17">
-        <v>6.400495734836883</v>
+        <v>6.481327219388092</v>
       </c>
       <c r="E17">
-        <v>12.05488234776637</v>
+        <v>12.09427560807904</v>
       </c>
       <c r="F17">
-        <v>16.771384207295</v>
+        <v>16.2020782933406</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.003046483829838</v>
+        <v>6.012485298249047</v>
       </c>
       <c r="I17">
-        <v>2.787871029559733</v>
+        <v>2.858970435521172</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>12.38814600933961</v>
+        <v>11.94747872052661</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.3377266654671</v>
       </c>
       <c r="M17">
-        <v>14.64095389642723</v>
+        <v>7.348770835201856</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.74310410695009</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.30020606634364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.85864876500612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.93470078354235</v>
+        <v>15.86228160295266</v>
       </c>
       <c r="C18">
-        <v>10.54200312875231</v>
+        <v>10.92730830851077</v>
       </c>
       <c r="D18">
-        <v>6.171004926418258</v>
+        <v>6.25864748019833</v>
       </c>
       <c r="E18">
-        <v>16.83817279751049</v>
+        <v>16.87220874327197</v>
       </c>
       <c r="F18">
-        <v>17.54811228726116</v>
+        <v>16.9118707615196</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.891551612869385</v>
+        <v>4.903564283577492</v>
       </c>
       <c r="I18">
-        <v>2.769457055013492</v>
+        <v>2.841093370798281</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>12.78851558760795</v>
+        <v>12.28117379651596</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.57331052654584</v>
       </c>
       <c r="M18">
-        <v>14.52191141772759</v>
+        <v>7.616582905933019</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.6348884301991</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.89870434162081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.39849229155007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.84444220034827</v>
+        <v>15.75322849201902</v>
       </c>
       <c r="C19">
-        <v>10.71381117068494</v>
+        <v>11.18359105725309</v>
       </c>
       <c r="D19">
-        <v>5.938100354467486</v>
+        <v>6.03740561483191</v>
       </c>
       <c r="E19">
-        <v>23.24803064441848</v>
+        <v>23.27735394691336</v>
       </c>
       <c r="F19">
-        <v>18.56092294280471</v>
+        <v>17.8256393948092</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.774806454898379</v>
+        <v>3.790669939979733</v>
       </c>
       <c r="I19">
-        <v>2.791632910387687</v>
+        <v>2.86157471803045</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>13.26744654960584</v>
+        <v>12.6665292216721</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.84689017005521</v>
       </c>
       <c r="M19">
-        <v>14.5280545013178</v>
+        <v>7.94003267274051</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.65680191010629</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.6478966955307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.06208243150399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.10314635917106</v>
+        <v>15.97093767004683</v>
       </c>
       <c r="C20">
-        <v>11.2061791071725</v>
+        <v>11.84662679645898</v>
       </c>
       <c r="D20">
-        <v>5.690079248738081</v>
+        <v>5.814351096386985</v>
       </c>
       <c r="E20">
-        <v>33.43943247434961</v>
+        <v>33.46145455739873</v>
       </c>
       <c r="F20">
-        <v>20.27356176854275</v>
+        <v>19.35048544709124</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.311120725253534</v>
+        <v>3.327751341944118</v>
       </c>
       <c r="I20">
-        <v>2.910043887117543</v>
+        <v>2.967945457035758</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.00118215048685</v>
+        <v>13.22506783988603</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.21329050113976</v>
       </c>
       <c r="M20">
-        <v>14.86606709718752</v>
+        <v>8.479381583218098</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.02362149129776</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.85242914300192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.10423379034682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.03269075443195</v>
+        <v>16.86603913084632</v>
       </c>
       <c r="C21">
-        <v>11.81286933133526</v>
+        <v>12.57961417218215</v>
       </c>
       <c r="D21">
-        <v>5.866156535330732</v>
+        <v>6.019669689925704</v>
       </c>
       <c r="E21">
-        <v>36.21014757985173</v>
+        <v>36.22304350345769</v>
       </c>
       <c r="F21">
-        <v>20.97387234777918</v>
+        <v>19.93491004502771</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.625751786033065</v>
+        <v>3.635489564431547</v>
       </c>
       <c r="I21">
-        <v>3.104391476307421</v>
+        <v>3.142356012971281</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.0109092360568</v>
+        <v>13.14694221618729</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.04806796679103</v>
       </c>
       <c r="M21">
-        <v>15.6625274668884</v>
+        <v>8.648089545370217</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.83755250134632</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.14348093228687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.29976711026975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.6218207214602</v>
+        <v>17.43483410964129</v>
       </c>
       <c r="C22">
-        <v>12.15414267166699</v>
+        <v>12.99355146683291</v>
       </c>
       <c r="D22">
-        <v>5.986106023840054</v>
+        <v>6.157404115906095</v>
       </c>
       <c r="E22">
-        <v>37.51118250625613</v>
+        <v>37.51827576533982</v>
       </c>
       <c r="F22">
-        <v>21.39400407563169</v>
+        <v>20.28641139499017</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.80988521461938</v>
+        <v>3.815227446498718</v>
       </c>
       <c r="I22">
-        <v>3.22262439183263</v>
+        <v>3.24685801133789</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>14.01172159701128</v>
+        <v>13.09354133974261</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.93512931307754</v>
       </c>
       <c r="M22">
-        <v>16.15291525572168</v>
+        <v>8.772133766137843</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.33786612365531</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.31112372581422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.4099890005176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.31666175736038</v>
+        <v>17.14016568512513</v>
       </c>
       <c r="C23">
-        <v>11.94524307318181</v>
+        <v>12.7462247718645</v>
       </c>
       <c r="D23">
-        <v>5.91674642067083</v>
+        <v>6.078575659088184</v>
       </c>
       <c r="E23">
-        <v>36.82240381127451</v>
+        <v>36.8325630700479</v>
       </c>
       <c r="F23">
-        <v>21.2027252158108</v>
+        <v>20.13005632748628</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.712361854299669</v>
+        <v>3.720023664903866</v>
       </c>
       <c r="I23">
-        <v>3.155836614213882</v>
+        <v>3.186120437854755</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>14.03659333538547</v>
+        <v>13.14455865425242</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.00980204686265</v>
       </c>
       <c r="M23">
-        <v>15.88757145624188</v>
+        <v>8.725006978298545</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.06745418460819</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.24735380018386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.37522258888066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0969529567394</v>
+        <v>15.96253504614677</v>
       </c>
       <c r="C24">
-        <v>11.17481590388775</v>
+        <v>11.82302671971259</v>
       </c>
       <c r="D24">
-        <v>5.655474936846475</v>
+        <v>5.780252478336873</v>
       </c>
       <c r="E24">
-        <v>34.10163320994918</v>
+        <v>34.12347194632151</v>
       </c>
       <c r="F24">
-        <v>20.43105756405083</v>
+        <v>19.4955188533737</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.335085117115529</v>
+        <v>3.351609444269897</v>
       </c>
       <c r="I24">
-        <v>2.905173878297979</v>
+        <v>2.960809983685225</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>14.10056202108981</v>
+        <v>13.30930390377608</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.27354082560219</v>
       </c>
       <c r="M24">
-        <v>14.85143500234853</v>
+        <v>8.548464807510603</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.01072741087836</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.97727992990921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.21750993041785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.66737272029383</v>
+        <v>14.58272615870108</v>
       </c>
       <c r="C25">
-        <v>10.29326571483709</v>
+        <v>10.76133900191103</v>
       </c>
       <c r="D25">
-        <v>5.357503715398123</v>
+        <v>5.439859432276997</v>
       </c>
       <c r="E25">
-        <v>30.92615080880952</v>
+        <v>30.96086468990323</v>
       </c>
       <c r="F25">
-        <v>19.61472488177872</v>
+        <v>18.83055671746062</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.911738647122196</v>
+        <v>2.937957801715263</v>
       </c>
       <c r="I25">
-        <v>2.627649781272846</v>
+        <v>2.711809502760147</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.19343668808855</v>
+        <v>13.50459842017787</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.56689937157443</v>
       </c>
       <c r="M25">
-        <v>13.64909192206023</v>
+        <v>8.437714877079673</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.78396702284291</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.71518141469546</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.07537438493329</v>
       </c>
     </row>
   </sheetData>
